--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail0 Features.xlsx
@@ -7561,7 +7561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7572,29 +7572,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7615,115 +7613,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7740,72 +7728,66 @@
         <v>3.008534294093701e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.83230119432467</v>
+        <v>2.003356022863906e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.2308320001879</v>
+        <v>1.585477203039547e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.003356022863906e-06</v>
+        <v>0.1063227929926303</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.585477203039547e-06</v>
+        <v>0.32428089740828</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1063227929926303</v>
+        <v>0.1161834089596639</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.32428089740828</v>
+        <v>1.909648131402472</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1161834089596639</v>
+        <v>3.01377989282779</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.946912473508169</v>
+        <v>5.714680788462309</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.01377989282779</v>
+        <v>1.359645587180979e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.714680788462309</v>
+        <v>8761851633.114067</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.359645587180979e-17</v>
+        <v>1.368472695704047e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>8761851633.114067</v>
+        <v>1043.800516076322</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.368472695704047e-08</v>
+        <v>0.0001128900362428662</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1043.800516076322</v>
+        <v>9.946352853876586</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001128900362428662</v>
+        <v>1.241278304356699</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.946352853876586</v>
+        <v>0.01116820395824562</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.241278304356699</v>
+        <v>4.193914820172639</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01116820395824562</v>
+        <v>0.9624400459697607</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.193914820172639</v>
+        <v>1.047102685980019</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9624400459697607</v>
+        <v>268</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.047102685980019</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.332112644458943</v>
       </c>
     </row>
@@ -7820,72 +7802,66 @@
         <v>2.176285891318204e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.8347026675733</v>
+        <v>1.463470048426869e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.34138703974305</v>
+        <v>1.612677845355855e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.463470048426869e-06</v>
+        <v>0.1054437291929917</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.612677845355855e-06</v>
+        <v>0.3283231849950008</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1054437291929917</v>
+        <v>0.1186263925857663</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3283231849950008</v>
+        <v>1.905083561782853</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1186263925857663</v>
+        <v>3.007018131223325</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.943668789953636</v>
+        <v>5.578855852310861</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.007018131223325</v>
+        <v>1.426656404032613e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.578855852310861</v>
+        <v>8428076812.290003</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.426656404032613e-17</v>
+        <v>1.420200420649376e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>8428076812.290003</v>
+        <v>1013.389407085055</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.420200420649376e-08</v>
+        <v>9.824613519446392e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1013.389407085055</v>
+        <v>10.05182627786365</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.824613519446392e-05</v>
+        <v>1.199438502711898</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.05182627786365</v>
+        <v>0.009926712034970354</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.199438502711898</v>
+        <v>4.337054180490677</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009926712034970354</v>
+        <v>0.9620232111632002</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.337054180490677</v>
+        <v>1.081812541607211</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9620232111632002</v>
+        <v>244</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.081812541607211</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>244</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.410584366547982</v>
       </c>
     </row>
@@ -7900,72 +7876,66 @@
         <v>1.570691042413873e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-3.811162182550311</v>
+        <v>1.069187951456934e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>15.35459981793386</v>
+        <v>1.632127073332643e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.069187951456934e-06</v>
+        <v>0.1040428802695759</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.632127073332643e-06</v>
+        <v>0.3336494247586157</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.1040428802695759</v>
+        <v>0.1218518876804113</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3336494247586157</v>
+        <v>1.905849743326857</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1218518876804113</v>
+        <v>3.174472511311532</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.946994223073841</v>
+        <v>5.471153191516168</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.174472511311532</v>
+        <v>1.483378295702084e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.471153191516168</v>
+        <v>8009531994.429785</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.483378295702084e-17</v>
+        <v>1.496136124928993e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>8009531994.429785</v>
+        <v>951.6257856151036</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.496136124928993e-08</v>
+        <v>8.727238935104557e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>951.6257856151036</v>
+        <v>9.290112490762974</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>8.727238935104557e-05</v>
+        <v>1.236554204208844</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.290112490762974</v>
+        <v>0.007532147425029741</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.236554204208844</v>
+        <v>4.638166192965686</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007532147425029741</v>
+        <v>0.9641658464701635</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.638166192965686</v>
+        <v>1.036845480979076</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9641658464701635</v>
+        <v>213</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.036845480979076</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.762359746612773</v>
       </c>
     </row>
@@ -7980,72 +7950,66 @@
         <v>1.132274728502092e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-3.721393055227033</v>
+        <v>7.812297803022126e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>15.05876819956433</v>
+        <v>1.645912233909118e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.812297803022126e-07</v>
+        <v>0.1016785910892649</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.645912233909118e-06</v>
+        <v>0.3402496244652768</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.1016785910892649</v>
+        <v>0.1258052765047254</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3402496244652768</v>
+        <v>1.902473967121146</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1258052765047254</v>
+        <v>2.668545226556879</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.945966154379553</v>
+        <v>5.655440534846084</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.668545226556879</v>
+        <v>1.388279114070953e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.655440534846084</v>
+        <v>8795812148.29417</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.388279114070953e-17</v>
+        <v>1.360340810333269e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>8795812148.29417</v>
+        <v>1074.06034177249</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.360340810333269e-08</v>
+        <v>7.593780625065894e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1074.06034177249</v>
+        <v>8.359419246880437</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>7.593780625065894e-05</v>
+        <v>1.498875067528652</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.359419246880437</v>
+        <v>0.005306525558657081</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.498875067528652</v>
+        <v>5.241756226010901</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005306525558657081</v>
+        <v>0.9648580847907253</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.241756226010901</v>
+        <v>1.039495022241863</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9648580847907253</v>
+        <v>234</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.039495022241863</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>234</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>4.185500324968789</v>
       </c>
     </row>
@@ -8060,72 +8024,66 @@
         <v>8.185272714477e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-3.483342011694113</v>
+        <v>5.707630752203307e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>13.99514532428246</v>
+        <v>1.655551843018224e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.707630752203307e-07</v>
+        <v>0.09740769654705489</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.655551843018224e-06</v>
+        <v>0.3470927674647877</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.09740769654705489</v>
+        <v>0.1296512107708662</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3470927674647877</v>
+        <v>1.901568384239789</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1296512107708662</v>
+        <v>2.703459416570469</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.945259495463871</v>
+        <v>6.086956355120002</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.703459416570469</v>
+        <v>1.068034026617512e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.086956355120002</v>
+        <v>11374078690.95545</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.068034026617512e-17</v>
+        <v>1.050125674183526e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>11374078690.95545</v>
+        <v>1381.712053728191</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.050125674183526e-08</v>
+        <v>5.846273841067378e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1381.712053728191</v>
+        <v>7.977641494029338</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>5.846273841067378e-05</v>
+        <v>1.751597609175119</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.977641494029338</v>
+        <v>0.003720730252196059</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.751597609175119</v>
+        <v>6.199465052815765</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.003720730252196059</v>
+        <v>0.9648773383040178</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.199465052815765</v>
+        <v>1.076010133275483</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9648773383040178</v>
+        <v>236</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.076010133275483</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>236</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>7.625974557523339</v>
       </c>
     </row>
@@ -8140,72 +8098,66 @@
         <v>5.997411878109979e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-2.965705222880296</v>
+        <v>4.166307175623201e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>11.42178895102158</v>
+        <v>1.662147932374611e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.166307175623201e-07</v>
+        <v>0.08953080720299844</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.662147932374611e-06</v>
+        <v>0.3505000148748286</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.08953080720299844</v>
+        <v>0.1305548428666672</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3505000148748286</v>
+        <v>1.910294547994053</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1305548428666672</v>
+        <v>2.787754566384331</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.947807101080537</v>
+        <v>6.87418531522491</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.787754566384331</v>
+        <v>7.897452408812125e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.87418531522491</v>
+        <v>16045008904.32545</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.897452408812125e-18</v>
+        <v>7.472240501106347e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>16045008904.32545</v>
+        <v>2033.13839708285</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.472240501106347e-09</v>
+        <v>6.101853950721491e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2033.13839708285</v>
+        <v>8.798861203914578</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>6.101853950721491e-05</v>
+        <v>1.391899030391299</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.798861203914578</v>
+        <v>0.004724052795509863</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.391899030391299</v>
+        <v>6.204874558214167</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.004724052795509863</v>
+        <v>0.9661952187809909</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>6.204874558214167</v>
+        <v>1.014996599363197</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9661952187809909</v>
+        <v>268</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.014996599363197</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>8.74449668143258</v>
       </c>
     </row>
@@ -8220,72 +8172,66 @@
         <v>4.554768853419336e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-2.080795139545199</v>
+        <v>3.03554711137971e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>6.960007867215243</v>
+        <v>1.666502377642366e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.03554711137971e-07</v>
+        <v>0.07574274385632704</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.666502377642366e-06</v>
+        <v>0.3426341860723966</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.07574274385632704</v>
+        <v>0.1228445869242646</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3426341860723966</v>
+        <v>1.908381901304237</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1228445869242646</v>
+        <v>3.092721006987081</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.948023541332758</v>
+        <v>7.937862808494994</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.092721006987081</v>
+        <v>5.922735138043405e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>7.937862808494994</v>
+        <v>22210191544.80061</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.922735138043405e-18</v>
+        <v>5.401542057474459e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>22210191544.80061</v>
+        <v>2921.641465443777</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.401542057474459e-09</v>
+        <v>7.45986001006836e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2921.641465443777</v>
+        <v>8.998704882925511</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>7.45986001006836e-05</v>
+        <v>1.29497574458135</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.998704882925511</v>
+        <v>0.006040747682708689</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.29497574458135</v>
+        <v>5.624357932793782</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.006040747682708689</v>
+        <v>0.9644210142765499</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.624357932793782</v>
+        <v>0.9674150036791913</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9644210142765499</v>
+        <v>315</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9674150036791913</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>7.123187222810992</v>
       </c>
     </row>
@@ -8300,72 +8246,66 @@
         <v>3.701790849626552e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.044229028596457</v>
+        <v>2.206960000693978e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.119602923952498</v>
+        <v>1.669203929613986e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.206960000693978e-07</v>
+        <v>0.05497825870051657</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.669203929613986e-06</v>
+        <v>0.31473566355261</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.05497825870051657</v>
+        <v>0.1018452440131213</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.31473566355261</v>
+        <v>1.918659911669523</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1018452440131213</v>
+        <v>2.977645368742138</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.961217809460162</v>
+        <v>7.175959171541033</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.977645368742138</v>
+        <v>4.531835562079664e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>7.175959171541033</v>
+        <v>29047761788.46467</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.531835562079664e-18</v>
+        <v>4.139293648020456e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>29047761788.46467</v>
+        <v>3823.838062825299</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.139293648020456e-09</v>
+        <v>7.42966401196983e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3823.838062825299</v>
+        <v>9.478160952074383</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>7.42966401196983e-05</v>
+        <v>1.196525218447246</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.478160952074383</v>
+        <v>0.006674478416339118</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.196525218447246</v>
+        <v>5.424558666959281</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006674478416339118</v>
+        <v>0.9643341397369642</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.424558666959281</v>
+        <v>0.8158932146551374</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9643341397369642</v>
+        <v>336</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.8158932146551374</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>336</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>6.796639291238796</v>
       </c>
     </row>
@@ -8380,72 +8320,66 @@
         <v>3.286708045370727e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.3485943278045507</v>
+        <v>1.601172232189755e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.5733694642448133</v>
+        <v>1.670688316253205e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.601172232189755e-07</v>
+        <v>0.03024202509861615</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.670688316253205e-06</v>
+        <v>0.267219227883998</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03024202509861615</v>
+        <v>0.07216077069647424</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.267219227883998</v>
+        <v>1.925335689031758</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.07216077069647424</v>
+        <v>3.379023277441836</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.962079441861979</v>
+        <v>7.4266400039673</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.379023277441836</v>
+        <v>4.231061285758546e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>7.4266400039673</v>
+        <v>31331042577.42399</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.231061285758546e-18</v>
+        <v>3.841653803087986e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>31331042577.42399</v>
+        <v>4153.354583048069</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.841653803087986e-09</v>
+        <v>7.222538329666092e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4153.354583048069</v>
+        <v>9.394937122037085</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>7.222538329666092e-05</v>
+        <v>1.195159044430902</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.394937122037085</v>
+        <v>0.006374962155359576</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.195159044430902</v>
+        <v>5.521173059734683</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006374962155359576</v>
+        <v>0.9638856778773337</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.521173059734683</v>
+        <v>0.8301440351449141</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9638856778773337</v>
+        <v>373</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.8301440351449141</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>373</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>7.055167001431982</v>
       </c>
     </row>
@@ -8460,72 +8394,66 @@
         <v>3.151027382970754e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1341669399890404</v>
+        <v>1.15766255374823e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.178038450748941</v>
+        <v>1.671276174229625e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.15766255374823e-07</v>
+        <v>0.007153414352456531</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.671276174229625e-06</v>
+        <v>0.212892108467532</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.007153414352456531</v>
+        <v>0.0452800809890828</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.212892108467532</v>
+        <v>1.924172414120897</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0452800809890828</v>
+        <v>3.375777442958326</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.961778722398032</v>
+        <v>7.476942326681052</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.375777442958326</v>
+        <v>4.17432250949933e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>7.476942326681052</v>
+        <v>31715684403.984</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.17432250949933e-18</v>
+        <v>3.795275861206141e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>31715684403.984</v>
+        <v>4198.886883078269</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.795275861206141e-09</v>
+        <v>7.422341165513801e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4198.886883078269</v>
+        <v>8.34921228723984</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>7.422341165513801e-05</v>
+        <v>1.411026482661994</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.34921228723984</v>
+        <v>0.00517406547081501</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.411026482661994</v>
+        <v>5.753874305471107</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.00517406547081501</v>
+        <v>0.9642987373712003</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.753874305471107</v>
+        <v>0.8059831788229794</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9642987373712003</v>
+        <v>380</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8059831788229794</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>380</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>7.378788939904629</v>
       </c>
     </row>
@@ -8540,72 +8468,66 @@
         <v>3.161400013349142e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1389276756646613</v>
+        <v>1.040384884860102e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.180896172885991</v>
+        <v>1.671199200522532e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.040384884860102e-07</v>
+        <v>-0.01102210521247739</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.671199200522532e-06</v>
+        <v>0.1641684403301681</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.01102210521247739</v>
+        <v>0.02702114168341175</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1641684403301681</v>
+        <v>1.92542528640323</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02702114168341175</v>
+        <v>3.681436481010121</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.967416925036548</v>
+        <v>7.275465057171505</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.681436481010121</v>
+        <v>4.408720257397971e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>7.275465057171505</v>
+        <v>29599065451.5727</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.408720257397971e-18</v>
+        <v>4.05256559808325e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>29599065451.5727</v>
+        <v>3862.500430947385</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.05256559808325e-09</v>
+        <v>7.217318384633176e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3862.500430947385</v>
+        <v>8.62122226458203</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>7.217318384633176e-05</v>
+        <v>1.403625843129134</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.62122226458203</v>
+        <v>0.005364306051496033</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.403625843129134</v>
+        <v>5.912288938987646</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.005364306051496033</v>
+        <v>0.9643312207807992</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>5.912288938987646</v>
+        <v>0.8015914317298919</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9643312207807992</v>
+        <v>368</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8015914317298919</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>368</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>7.914363530856553</v>
       </c>
     </row>
@@ -8620,72 +8542,66 @@
         <v>3.232348508251402e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1629462510376017</v>
+        <v>1.059960510525744e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.187749294605444</v>
+        <v>1.670619601325057e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.059960510525744e-07</v>
+        <v>-0.02444199379917616</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.670619601325057e-06</v>
+        <v>0.1252744303578926</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02444199379917616</v>
+        <v>0.01626259587678299</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1252744303578926</v>
+        <v>1.921909802778416</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01626259587678299</v>
+        <v>3.855010724713166</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.964453661641349</v>
+        <v>6.360878747049854</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.855010724713166</v>
+        <v>5.767662339213566e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>6.360878747049854</v>
+        <v>22229777451.64604</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.767662339213566e-18</v>
+        <v>5.385747709538728e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>22229777451.64604</v>
+        <v>2850.16535654165</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.385747709538728e-09</v>
+        <v>7.241530153467753e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2850.16535654165</v>
+        <v>9.901948206473401</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>7.241530153467753e-05</v>
+        <v>1.213142322582655</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.901948206473401</v>
+        <v>0.007100217361459252</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.213142322582655</v>
+        <v>5.686598722511031</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.007100217361459252</v>
+        <v>0.9642663732375304</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.686598722511031</v>
+        <v>0.8684344587870542</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9642663732375304</v>
+        <v>326</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8684344587870542</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>326</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>7.516765997908792</v>
       </c>
     </row>
@@ -8700,72 +8616,66 @@
         <v>3.319219542595712e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1569238554800347</v>
+        <v>1.083627469479434e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.225244565654094</v>
+        <v>1.669645026928018e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.083627469479434e-07</v>
+        <v>-0.03449936835681133</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.669645026928018e-06</v>
+        <v>0.09430083034259912</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03449936835681133</v>
+        <v>0.01006599651329465</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.09430083034259912</v>
+        <v>1.921583458420326</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01006599651329465</v>
+        <v>3.712744991681107</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.961827322666635</v>
+        <v>5.92095870301398</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.712744991681107</v>
+        <v>6.656562241656499e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.92095870301398</v>
+        <v>19130891044.40936</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.656562241656499e-18</v>
+        <v>6.24711464147898e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>19130891044.40936</v>
+        <v>2436.241819152474</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.24711464147898e-09</v>
+        <v>8.703754456875546e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2436.241819152474</v>
+        <v>9.430550107190914</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>8.703754456875546e-05</v>
+        <v>1.234082055758994</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.430550107190914</v>
+        <v>0.00774070798976795</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.234082055758994</v>
+        <v>5.161091826485332</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.00774070798976795</v>
+        <v>0.9623121443856317</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.161091826485332</v>
+        <v>0.8775538732129626</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9623121443856317</v>
+        <v>278</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.8775538732129626</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>278</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>5.683390640264467</v>
       </c>
     </row>
@@ -8780,72 +8690,66 @@
         <v>3.400414030559131e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1288938356069936</v>
+        <v>1.109571752294369e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.249192153270263</v>
+        <v>1.668347445570084e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.109571752294369e-07</v>
+        <v>-0.0423062801866396</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.668347445570084e-06</v>
+        <v>0.06818570771500282</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0423062801866396</v>
+        <v>0.00642909004781852</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06818570771500282</v>
+        <v>1.917604339474005</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.00642909004781852</v>
+        <v>3.797134884579762</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.956321669222819</v>
+        <v>5.879298331617874</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.797134884579762</v>
+        <v>6.751232509469287e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.879298331617874</v>
+        <v>18886934286.00943</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.751232509469287e-18</v>
+        <v>6.300422666751046e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>18886934286.00943</v>
+        <v>2408.274591588496</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.300422666751046e-09</v>
+        <v>8.969877414302171e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2408.274591588496</v>
+        <v>9.216361590343524</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>8.969877414302171e-05</v>
+        <v>1.238782964449254</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.216361590343524</v>
+        <v>0.00761913236455611</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.238782964449254</v>
+        <v>4.986912072109333</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.00761913236455611</v>
+        <v>0.9630592368168382</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.986912072109333</v>
+        <v>0.8694082186862561</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9630592368168382</v>
+        <v>258</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.8694082186862561</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>258</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>5.125349155748243</v>
       </c>
     </row>
@@ -8860,72 +8764,66 @@
         <v>3.465668450599703e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.09518514237944523</v>
+        <v>1.1355407845132e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.247972613011141</v>
+        <v>1.666785911650261e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.1355407845132e-07</v>
+        <v>-0.04825270307959059</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.666785911650261e-06</v>
+        <v>0.04621470041538848</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04825270307959059</v>
+        <v>0.00445922719242955</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04621470041538848</v>
+        <v>1.911765437734091</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.00445922719242955</v>
+        <v>3.206164810222655</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.95279046247016</v>
+        <v>5.931209029700006</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.206164810222655</v>
+        <v>6.633574355726482e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.931209029700006</v>
+        <v>19276891303.13256</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.633574355726482e-18</v>
+        <v>6.199720338848796e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>19276891303.13256</v>
+        <v>2465.026534377154</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.199720338848796e-09</v>
+        <v>8.575384412986223e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2465.026534377154</v>
+        <v>8.97010386161949</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>8.575384412986223e-05</v>
+        <v>1.251184709709843</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.97010386161949</v>
+        <v>0.00689999126127781</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.251184709709843</v>
+        <v>5.071360065831857</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.00689999126127781</v>
+        <v>0.9632991060824448</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>5.071360065831857</v>
+        <v>0.8747759086113233</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9632991060824448</v>
+        <v>268</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.8747759086113233</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>5.419915257291711</v>
       </c>
     </row>
@@ -8940,72 +8838,66 @@
         <v>3.512472497084769e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.06725044326426151</v>
+        <v>1.160545694967421e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.232148981533536</v>
+        <v>1.665024228613085e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.160545694967421e-07</v>
+        <v>-0.05234269947578526</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.665024228613085e-06</v>
+        <v>0.0302960078538725</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05234269947578526</v>
+        <v>0.003656053420397049</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0302960078538725</v>
+        <v>1.917620999696773</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003656053420397049</v>
+        <v>3.226062383554394</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.957254964884567</v>
+        <v>5.958998138598426</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.226062383554394</v>
+        <v>6.571848780730896e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.958998138598426</v>
+        <v>19933134296.88493</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.571848780730896e-18</v>
+        <v>6.003217283347509e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>19933134296.88493</v>
+        <v>2611.191643594922</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.003217283347509e-09</v>
+        <v>8.329436954960308e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2611.191643594922</v>
+        <v>8.628310890003039</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>8.329436954960308e-05</v>
+        <v>1.278611170076526</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.628310890003039</v>
+        <v>0.006201078301894739</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.278611170076526</v>
+        <v>5.209341803056814</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.006201078301894739</v>
+        <v>0.9628263440837116</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>5.209341803056814</v>
+        <v>0.880238622568402</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9628263440837116</v>
+        <v>287</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.880238622568402</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>287</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>5.873827517809494</v>
       </c>
     </row>
@@ -9020,72 +8912,66 @@
         <v>3.543912990444464e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.04860118433689625</v>
+        <v>1.183883397453059e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.214428516096381</v>
+        <v>1.663128693636196e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.183883397453059e-07</v>
+        <v>-0.05483025267510202</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.663128693636196e-06</v>
+        <v>0.02103571766246898</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05483025267510202</v>
+        <v>0.003448650316641773</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.02103571766246898</v>
+        <v>1.920078367763077</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003448650316641773</v>
+        <v>3.069841180501295</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.958091101044168</v>
+        <v>5.690847604931082</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.069841180501295</v>
+        <v>6.068774239760378e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.690847604931082</v>
+        <v>21838475212.05752</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>6.068774239760378e-18</v>
+        <v>5.50221443554957e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>21838475212.05752</v>
+        <v>2894.313739149825</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.50221443554957e-09</v>
+        <v>8.792410691750398e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>2894.313739149825</v>
+        <v>8.751523718822167</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>8.792410691750398e-05</v>
+        <v>1.299500358958448</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.751523718822167</v>
+        <v>0.00673403414329754</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.299500358958448</v>
+        <v>5.218652928072468</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.00673403414329754</v>
+        <v>0.9634584029167503</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>5.218652928072468</v>
+        <v>0.8732990292348523</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9634584029167503</v>
+        <v>316</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8732990292348523</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>316</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>6.000313156031668</v>
       </c>
     </row>
@@ -9100,72 +8986,66 @@
         <v>3.564644162291453e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.0377722902339858</v>
+        <v>1.205912746342554e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.200589047043457</v>
+        <v>1.661151324057672e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.205912746342554e-07</v>
+        <v>-0.05627148885886105</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.661151324057672e-06</v>
+        <v>0.0164449228051925</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05627148885886105</v>
+        <v>0.003437063307095642</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.0164449228051925</v>
+        <v>1.920037499416902</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003437063307095642</v>
+        <v>3.303435241022751</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.957122513973725</v>
+        <v>6.014827352760809</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.303435241022751</v>
+        <v>5.432610409289157e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.014827352760809</v>
+        <v>24451021862.30166</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.432610409289157e-18</v>
+        <v>4.906150948409899e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>24451021862.30166</v>
+        <v>3247.899552342915</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.906150948409899e-09</v>
+        <v>0.0001009150388369958</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3247.899552342915</v>
+        <v>9.432238762086836</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001009150388369958</v>
+        <v>1.305390486916814</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.432238762086836</v>
+        <v>0.008978121183896808</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.305390486916814</v>
+        <v>5.077281975780966</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.008978121183896808</v>
+        <v>0.9627914004405418</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>5.077281975780966</v>
+        <v>0.8965800785249083</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9627914004405418</v>
+        <v>336</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8965800785249083</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>336</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>5.616229082479974</v>
       </c>
     </row>
@@ -9180,72 +9060,66 @@
         <v>3.578257949241587e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.03238125686791771</v>
+        <v>1.226548084353339e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.191748836815644</v>
+        <v>1.659124638708739e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.226548084353339e-07</v>
+        <v>-0.05712649665881978</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.659124638708739e-06</v>
+        <v>0.01427954674872402</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05712649665881978</v>
+        <v>0.003467546043536251</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.01427954674872402</v>
+        <v>1.92910829989857</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003467546043536251</v>
+        <v>3.502321157013677</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.963170250557705</v>
+        <v>6.318831290575007</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.502321157013677</v>
+        <v>5.340503011869608e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>6.318831290575007</v>
+        <v>24621792804.95672</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.340503011869608e-18</v>
+        <v>4.878412110058076e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>24621792804.95672</v>
+        <v>3237.58745840162</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.878412110058076e-09</v>
+        <v>9.596728271324531e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3237.58745840162</v>
+        <v>10.80355090189156</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.596728271324531e-05</v>
+        <v>1.161929535650599</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.80355090189156</v>
+        <v>0.01120098570647864</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.161929535650599</v>
+        <v>5.126190850587363</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01120098570647864</v>
+        <v>0.9631650658527204</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>5.126190850587363</v>
+        <v>0.8564236761173895</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9631650658527204</v>
+        <v>357</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8564236761173895</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>357</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>5.850760893667838</v>
       </c>
     </row>
@@ -9260,72 +9134,66 @@
         <v>3.586895749583869e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.0305935670253235</v>
+        <v>1.240661713853674e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.187766709805027</v>
+        <v>1.657067616003258e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.240661713853674e-07</v>
+        <v>-0.05764548331982376</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.657067616003258e-06</v>
+        <v>0.01321059125325446</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05764548331982376</v>
+        <v>0.003497726750955341</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.01321059125325446</v>
+        <v>1.93043969601017</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003497726750955341</v>
+        <v>3.718064351597766</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.965765267201528</v>
+        <v>6.485497101593769</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.718064351597766</v>
+        <v>5.069546901614645e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>6.485497101593769</v>
+        <v>26261856571.77873</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.069546901614645e-18</v>
+        <v>4.584999433587757e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>26261856571.77873</v>
+        <v>3496.391015515142</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.584999433587757e-09</v>
+        <v>8.354245522690944e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3496.391015515142</v>
+        <v>10.71965887686825</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>8.354245522690944e-05</v>
+        <v>1.130215091476366</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.71965887686825</v>
+        <v>0.009599954293690162</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.130215091476366</v>
+        <v>5.254289835385727</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.009599954293690162</v>
+        <v>0.9631144704476063</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>5.254289835385727</v>
+        <v>0.823886754199327</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9631144704476063</v>
+        <v>377</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.823886754199327</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>377</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>6.183240469819799</v>
       </c>
     </row>
@@ -9340,72 +9208,66 @@
         <v>3.591758670421449e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.03091981253399556</v>
+        <v>1.247089857228811e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.188384449742373</v>
+        <v>1.654993396706611e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.247089857228811e-07</v>
+        <v>-0.05786647736059553</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.654993396706611e-06</v>
+        <v>0.01282189237257059</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05786647736059553</v>
+        <v>0.003513097470764942</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.01282189237257059</v>
+        <v>1.9300631473942</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003513097470764942</v>
+        <v>4.007959877946832</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.963224796776623</v>
+        <v>6.021699421875581</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>4.007959877946832</v>
+        <v>4.97691683518809e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>6.021699421875581</v>
+        <v>25769630482.03592</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.97691683518809e-18</v>
+        <v>4.670552373088883e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>25769630482.03592</v>
+        <v>3305.040349656957</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.670552373088883e-09</v>
+        <v>7.990149941721156e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>3305.040349656957</v>
+        <v>8.706088703407245</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>7.990149941721156e-05</v>
+        <v>1.252764270109945</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.706088703407245</v>
+        <v>0.006056212492674206</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.252764270109945</v>
+        <v>5.362681386724018</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.006056212492674206</v>
+        <v>0.9624451516328271</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>5.362681386724018</v>
+        <v>0.8326017770701555</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9624451516328271</v>
+        <v>349</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8326017770701555</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>349</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>6.017401420290014</v>
       </c>
     </row>
@@ -9420,72 +9282,66 @@
         <v>3.593930451761894e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.03169015653027082</v>
+        <v>1.246644132643217e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.192725326765647</v>
+        <v>1.652914501952507e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.246644132643217e-07</v>
+        <v>-0.05781125059233589</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.652914501952507e-06</v>
+        <v>0.01282543865914418</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05781125059233589</v>
+        <v>0.003506760694595498</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.01282543865914418</v>
+        <v>1.932288380971728</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003506760694595498</v>
+        <v>3.910900993344032</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.963572977623969</v>
+        <v>5.950895012828575</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.910900993344032</v>
+        <v>5.096053209913589e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.950895012828575</v>
+        <v>24707007471.97984</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.096053209913589e-18</v>
+        <v>4.872947120619145e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>24707007471.97984</v>
+        <v>3110.815449309925</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.872947120619145e-09</v>
+        <v>8.064869628361038e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3110.815449309925</v>
+        <v>8.004407372982898</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>8.064869628361038e-05</v>
+        <v>1.389530817469241</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.004407372982898</v>
+        <v>0.005167205310908579</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.389530817469241</v>
+        <v>5.436558697268971</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.005167205310908579</v>
+        <v>0.9613199394024059</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.436558697268971</v>
+        <v>0.8501076341257333</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9613199394024059</v>
+        <v>322</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8501076341257333</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>322</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>6.303989333478006</v>
       </c>
     </row>
@@ -9500,72 +9356,66 @@
         <v>3.594080533184986e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.03161928559524037</v>
+        <v>1.242172274315372e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.199857999242111</v>
+        <v>1.650840186611468e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.242172274315372e-07</v>
+        <v>-0.0576014904578888</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.650840186611468e-06</v>
+        <v>0.01297045093670491</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.0576014904578888</v>
+        <v>0.003486284674113324</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.01297045093670491</v>
+        <v>1.931675591837953</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003486284674113324</v>
+        <v>3.823583530261534</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.963099322516008</v>
+        <v>5.968553119282623</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.823583530261534</v>
+        <v>5.06594422555592e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.968553119282623</v>
+        <v>24602839991.74546</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.06594422555592e-18</v>
+        <v>4.888460716084815e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>24602839991.74546</v>
+        <v>3066.414700594412</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.888460716084815e-09</v>
+        <v>7.535074276296667e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>3066.414700594412</v>
+        <v>9.175138516818746</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>7.535074276296667e-05</v>
+        <v>1.256901856120716</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.175138516818746</v>
+        <v>0.00634326414673052</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.256901856120716</v>
+        <v>5.677247750010681</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.00634326414673052</v>
+        <v>0.9614082161714167</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.677247750010681</v>
+        <v>0.8370740436311315</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9614082161714167</v>
+        <v>313</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8370740436311315</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>7.430154032445624</v>
       </c>
     </row>
@@ -9580,72 +9430,66 @@
         <v>3.592319300742014e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.03026923160740235</v>
+        <v>1.236661051892872e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.209314183967818</v>
+        <v>1.64877441078072e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.236661051892872e-07</v>
+        <v>-0.05737390982217638</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.64877441078072e-06</v>
+        <v>0.01316552988148433</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05737390982217638</v>
+        <v>0.003465227268610935</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.01316552988148433</v>
+        <v>1.927174704645922</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.003465227268610935</v>
+        <v>3.936380802446307</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.961118814326733</v>
+        <v>6.003844446728393</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.936380802446307</v>
+        <v>5.006562793764974e-18</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>6.003844446728393</v>
+        <v>24584886545.19129</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.006562793764974e-18</v>
+        <v>4.891096462182025e-09</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>24584886545.19129</v>
+        <v>3026.04989399834</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.891096462182025e-09</v>
+        <v>6.407996094474714e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>3026.04989399834</v>
+        <v>11.4240635726407</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>6.407996094474714e-05</v>
+        <v>1.104704328631787</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.4240635726407</v>
+        <v>0.008363026265961134</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.104704328631787</v>
+        <v>6.128227442008439</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.008363026265961134</v>
+        <v>0.9617899335088589</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>6.128227442008439</v>
+        <v>0.8475175056579406</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9617899335088589</v>
+        <v>314</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.8475175056579406</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>314</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>9.423471099672543</v>
       </c>
     </row>
@@ -9660,72 +9504,66 @@
         <v>3.588509253672737e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.02770332723438263</v>
+        <v>1.230635686842458e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.220938012249288</v>
+        <v>1.646718205444129e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.230635686842458e-07</v>
+        <v>-0.05715499612161753</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.646718205444129e-06</v>
+        <v>0.0133931781563449</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05715499612161753</v>
+        <v>0.003446196608126678</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.0133931781563449</v>
+        <v>1.935142148338911</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.003446196608126678</v>
+        <v>3.626746252952021</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.964847215586662</v>
+        <v>5.989084185992525</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.626746252952021</v>
+        <v>5.031270823225095e-18</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.989084185992525</v>
+        <v>25401834426.85646</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5.031270823225095e-18</v>
+        <v>4.742245485662492e-09</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>25401834426.85646</v>
+        <v>3246.443559757409</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.742245485662492e-09</v>
+        <v>4.663766711865444e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>3246.443559757409</v>
+        <v>12.09484648903721</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>4.663766711865444e-05</v>
+        <v>1.05332343939313</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>12.09484648903721</v>
+        <v>0.006822405666440499</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.05332343939313</v>
+        <v>6.803619819619771</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.006822405666440499</v>
+        <v>0.961805473458463</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>6.803619819619771</v>
+        <v>0.8494994136053143</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.961805473458463</v>
+        <v>352</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.8494994136053143</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>352</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>11.54869565481888</v>
       </c>
     </row>
@@ -9740,72 +9578,66 @@
         <v>3.582596603930108e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.02383764858244234</v>
+        <v>1.222493052156028e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.234473820492999</v>
+        <v>1.644673517380386e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.222493052156028e-07</v>
+        <v>-0.05687015017863389</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.644673517380386e-06</v>
+        <v>0.01372738377692867</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05687015017863389</v>
+        <v>0.003422801361378088</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.01372738377692867</v>
+        <v>1.932274233415668</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.003422801361378088</v>
+        <v>3.060101272537141</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.961259318739171</v>
+        <v>6.883965590005147</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.060101272537141</v>
+        <v>5.173109910214977e-18</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>6.883965590005147</v>
+        <v>24653787362.90188</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.173109910214977e-18</v>
+        <v>4.871313565827145e-09</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>24653787362.90188</v>
+        <v>3144.263958140169</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.871313565827145e-09</v>
+        <v>2.689641142744967e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>3144.263958140169</v>
+        <v>10.20594693102606</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>2.689641142744967e-05</v>
+        <v>1.369743221845295</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.20594693102606</v>
+        <v>0.002801566598643641</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.369743221845295</v>
+        <v>7.687887475134064</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.002801566598643641</v>
+        <v>0.9622723807651599</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>7.687887475134064</v>
+        <v>0.789922798951523</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9622723807651599</v>
+        <v>329</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.789922798951523</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>329</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>14.09428252590286</v>
       </c>
     </row>
@@ -9820,72 +9652,66 @@
         <v>3.574003494979795e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.01820004941369483</v>
+        <v>1.210876257360645e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.250195983996348</v>
+        <v>1.642645134822244e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.210876257360645e-07</v>
+        <v>-0.05646426728659393</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.642645134822244e-06</v>
+        <v>0.0144001144902775</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05646426728659393</v>
+        <v>0.003395768042623034</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.0144001144902775</v>
+        <v>1.930653943249709</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003395768042623034</v>
+        <v>3.009516882248096</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.962578997643837</v>
+        <v>7.409131164462197</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.009516882248096</v>
+        <v>4.602094790380151e-18</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>7.409131164462197</v>
+        <v>27881079639.53401</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.602094790380151e-18</v>
+        <v>4.31596065777832e-09</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>27881079639.53401</v>
+        <v>3577.45956352573</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.31596065777832e-09</v>
+        <v>9.669827647877494e-06</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>3577.45956352573</v>
+        <v>7.650500335898924</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>9.669827647877494e-06</v>
+        <v>2.415398593262792</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.650500335898924</v>
+        <v>0.0005659765148208189</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>2.415398593262792</v>
+        <v>8.514748382161546</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0005659765148208189</v>
+        <v>0.9630939000454347</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>8.514748382161546</v>
+        <v>0.7932401306607927</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9630939000454347</v>
+        <v>329</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.7932401306607927</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>329</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>17.50795592670418</v>
       </c>
     </row>
@@ -9900,72 +9726,66 @@
         <v>3.561533134514147e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.01014532161330376</v>
+        <v>1.193810295056465e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.268886265841051</v>
+        <v>1.640640256036011e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.193810295056465e-07</v>
+        <v>-0.05586263615060311</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.640640256036011e-06</v>
+        <v>0.01567402355374104</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05586263615060311</v>
+        <v>0.003366480682359512</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.01567402355374104</v>
+        <v>1.933032122094601</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003366480682359512</v>
+        <v>3.110451515319333</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.964098933310748</v>
+        <v>7.963521376079834</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.110451515319333</v>
+        <v>4.432738515978073e-18</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>7.963521376079834</v>
+        <v>29700833566.37793</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.432738515978073e-18</v>
+        <v>4.071013429538565e-09</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>29700833566.37793</v>
+        <v>3910.293802557383</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.071013429538565e-09</v>
+        <v>1.980049151375022e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>3910.293802557383</v>
+        <v>8.06661000761051</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>1.980049151375022e-05</v>
+        <v>1.8332726650461</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.06661000761051</v>
+        <v>0.001288421883791227</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.8332726650461</v>
+        <v>7.946388777646241</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.001288421883791227</v>
+        <v>0.9637198431775509</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>7.946388777646241</v>
+        <v>0.7946624477298992</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9637198431775509</v>
+        <v>329</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.7946624477298992</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>329</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>15.46383806868592</v>
       </c>
     </row>
@@ -9980,72 +9800,66 @@
         <v>3.544198115540594e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.001501162388966417</v>
+        <v>1.171085163660369e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.290447581304844</v>
+        <v>1.638670957731526e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.171085163660369e-07</v>
+        <v>-0.05489994257183605</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.638670957731526e-06</v>
+        <v>0.01786588624700896</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05489994257183605</v>
+        <v>0.003333256957478237</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.01786588624700896</v>
+        <v>1.939169158807671</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003333256957478237</v>
+        <v>2.802406398469545</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.965914103300613</v>
+        <v>7.381821448008776</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.802406398469545</v>
+        <v>6.530357771822638e-18</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>7.381821448008776</v>
+        <v>19901704450.69139</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>6.530357771822638e-18</v>
+        <v>6.079673217901833e-09</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>19901704450.69139</v>
+        <v>2586.530000969371</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.079673217901833e-09</v>
+        <v>6.171421896741125e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>2586.530000969371</v>
+        <v>9.978066455305036</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>6.171421896741125e-05</v>
+        <v>1.352817046837761</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.978066455305036</v>
+        <v>0.006144379354640486</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.352817046837761</v>
+        <v>6.464541067332396</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.006144379354640486</v>
+        <v>0.9627627757666944</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>6.464541067332396</v>
+        <v>0.7863991775892351</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9627627757666944</v>
+        <v>303</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.7863991775892351</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>303</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>10.5429015268709</v>
       </c>
     </row>
@@ -10060,72 +9874,66 @@
         <v>3.520990435568591e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.0183590937073337</v>
+        <v>1.146283189988125e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.31371389706668</v>
+        <v>1.636754690616246e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.146283189988125e-07</v>
+        <v>-0.05350183421271253</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.636754690616246e-06</v>
+        <v>0.02129607518040918</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05350183421271253</v>
+        <v>0.003315874010050249</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.02129607518040918</v>
+        <v>1.943215032378607</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003315874010050249</v>
+        <v>3.426387882955483</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.96674135284584</v>
+        <v>6.619888774445928</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.426387882955483</v>
+        <v>8.326723733794816e-18</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>6.619888774445928</v>
+        <v>15374894515.91295</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>8.326723733794816e-18</v>
+        <v>7.869879325591295e-09</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>15374894515.91295</v>
+        <v>1968.332418868568</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>7.869879325591295e-09</v>
+        <v>8.72145931310732e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1968.332418868568</v>
+        <v>11.95385323065289</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>8.72145931310732e-05</v>
+        <v>1.09297667649723</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.95385323065289</v>
+        <v>0.01246249501536165</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.09297667649723</v>
+        <v>5.672806322882074</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01246249501536165</v>
+        <v>0.9618129819268224</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>5.672806322882074</v>
+        <v>0.8449781711252881</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9618129819268224</v>
+        <v>276</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.8449781711252881</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>276</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>8.516042896151403</v>
       </c>
     </row>
@@ -10140,72 +9948,66 @@
         <v>3.49141791386123e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.0410911898116238</v>
+        <v>1.12054777512645e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.336416522880922</v>
+        <v>1.634904460660889e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.12054777512645e-07</v>
+        <v>-0.05205997359770718</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.634904460660889e-06</v>
+        <v>0.02446569841174998</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05205997359770718</v>
+        <v>0.003308746313837088</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.02446569841174998</v>
+        <v>1.939330565070874</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003308746313837088</v>
+        <v>3.122764516428871</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.961030089900245</v>
+        <v>6.125833531178722</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.122764516428871</v>
+        <v>1.209181072571848e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>6.125833531178722</v>
+        <v>10301552338.27493</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.209181072571848e-17</v>
+        <v>1.172656149633909e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>10301552338.27493</v>
+        <v>1283.206902990179</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.172656149633909e-08</v>
+        <v>9.766293528372898e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1283.206902990179</v>
+        <v>12.30417181698171</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>9.766293528372898e-05</v>
+        <v>1.090104391484193</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>12.30417181698171</v>
+        <v>0.01478545000334739</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.090104391484193</v>
+        <v>5.403333087872044</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01478545000334739</v>
+        <v>0.96171104220159</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>5.403333087872044</v>
+        <v>1.063463400791022</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.96171104220159</v>
+        <v>258</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.063463400791022</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>258</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>7.662661356916436</v>
       </c>
     </row>
@@ -10220,72 +10022,66 @@
         <v>3.457046742163217e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.06850249839875673</v>
+        <v>1.095015465564094e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.355733024538416</v>
+        <v>1.633114778121737e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.095015465564094e-07</v>
+        <v>-0.0510265750472985</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.633114778121737e-06</v>
+        <v>0.02621721660162988</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.0510265750472985</v>
+        <v>0.003291039071770788</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.02621721660162988</v>
+        <v>1.932809597235467</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.003291039071770788</v>
+        <v>3.138884981606365</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.955547893342841</v>
+        <v>5.157584460956357</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.138884981606365</v>
+        <v>1.947726227548407e-17</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>5.157584460956357</v>
+        <v>6203798447.403535</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.947726227548407e-17</v>
+        <v>1.937452338126963e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>6203798447.403535</v>
+        <v>749.6236365098422</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.937452338126963e-08</v>
+        <v>0.0001473695883776639</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>749.6236365098422</v>
+        <v>9.311316291608881</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001473695883776639</v>
+        <v>1.642296111318749</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.311316291608881</v>
+        <v>0.01277703336730241</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.642296111318749</v>
+        <v>4.420215124237282</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01277703336730241</v>
+        <v>0.961968504479925</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>4.420215124237282</v>
+        <v>1.04176842547168</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.961968504479925</v>
+        <v>225</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.04176842547168</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>3.834681799125749</v>
       </c>
     </row>
@@ -10300,72 +10096,66 @@
         <v>3.420009185300765e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.09920030762582868</v>
+        <v>1.069702674064918e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.369837235532989</v>
+        <v>1.631372131201928e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.069702674064918e-07</v>
+        <v>-0.05036579764607836</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.631372131201928e-06</v>
+        <v>0.02711119034409241</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05036579764607836</v>
+        <v>0.003271703783877696</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.02711119034409241</v>
+        <v>1.924792204364879</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.003271703783877696</v>
+        <v>3.147069621606328</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.949730029071479</v>
+        <v>4.803604734419016</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>3.147069621606328</v>
+        <v>2.245360516236341e-17</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.803604734419016</v>
+        <v>5453711310.485167</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.245360516236341e-17</v>
+        <v>2.205607659322142e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>5453711310.485167</v>
+        <v>667.8368386800697</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.205607659322142e-08</v>
+        <v>0.0001388197204194029</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>667.8368386800697</v>
+        <v>8.860964236371155</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001388197204194029</v>
+        <v>1.487388806295164</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.860964236371155</v>
+        <v>0.01089966456511859</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.487388806295164</v>
+        <v>3.820170785695436</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01089966456511859</v>
+        <v>0.9615249628668903</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.820170785695436</v>
+        <v>1.079326803429849</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9615249628668903</v>
+        <v>205</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.079326803429849</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>205</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>2.027170176820229</v>
       </c>
     </row>
@@ -10380,72 +10170,66 @@
         <v>3.381582011248626e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.1325008242915742</v>
+        <v>1.045023713748778e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.377689803059043</v>
+        <v>1.629667650009578e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.045023713748778e-07</v>
+        <v>-0.04989436288592752</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.629667650009578e-06</v>
+        <v>0.0277504325003483</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.04989436288592752</v>
+        <v>0.003259518750349655</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.0277504325003483</v>
+        <v>1.9208573864025</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.003259518750349655</v>
+        <v>3.034114390756778</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.946405647728729</v>
+        <v>4.741553307183306</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>3.034114390756778</v>
+        <v>2.304513915305121e-17</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.741553307183306</v>
+        <v>5250091075.153415</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.304513915305121e-17</v>
+        <v>2.28983888181458e-08</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>5250091075.153415</v>
+        <v>635.2036859127562</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.28983888181458e-08</v>
+        <v>0.0001328156116571383</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>635.2036859127562</v>
+        <v>9.460677280103759</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001328156116571383</v>
+        <v>1.186539804285218</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.460677280103759</v>
+        <v>0.01188758357088352</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.186539804285218</v>
+        <v>3.422178313621961</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01188758357088352</v>
+        <v>0.9614765155763374</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.422178313621961</v>
+        <v>1.08450958008991</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9614765155763374</v>
+        <v>175</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.08450958008991</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>1.367816422593222</v>
       </c>
     </row>
@@ -10460,72 +10244,66 @@
         <v>3.342024312027381e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.1679753319846805</v>
+        <v>1.022048736207954e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.378911314179897</v>
+        <v>1.627996292101531e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.022048736207954e-07</v>
+        <v>-0.04954959156861386</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.627996292101531e-06</v>
+        <v>0.02838633704325728</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.04954959156861386</v>
+        <v>0.003260973817445082</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.02838633704325728</v>
+        <v>1.915533284350584</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.003260973817445082</v>
+        <v>2.972215802588443</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.93850120720664</v>
+        <v>4.739729977025378</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.972215802588443</v>
+        <v>2.306287306597667e-17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.739729977025378</v>
+        <v>5154208458.973393</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.306287306597667e-17</v>
+        <v>2.327245718217752e-08</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>5154208458.973393</v>
+        <v>612.685168659438</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.327245718217752e-08</v>
+        <v>0.0001389502045044527</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>612.685168659438</v>
+        <v>9.918544801870771</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001389502045044527</v>
+        <v>1.163691422485321</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.918544801870771</v>
+        <v>0.01366957804924756</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.163691422485321</v>
+        <v>3.177654178931263</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01366957804924756</v>
+        <v>0.9616457084247416</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.177654178931263</v>
+        <v>1.081370389087569</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9616457084247416</v>
+        <v>198</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.081370389087569</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>198</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>1.168441953745368</v>
       </c>
     </row>
@@ -10540,72 +10318,66 @@
         <v>3.300922277000371e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.2052525493227169</v>
+        <v>1.000870868525239e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.373594115624448</v>
+        <v>1.626355181756462e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.000870868525239e-07</v>
+        <v>-0.04925797305103697</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.626355181756462e-06</v>
+        <v>0.02914212525695717</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.04925797305103697</v>
+        <v>0.00327567739418415</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.02914212525695717</v>
+        <v>1.912220636156459</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.00327567739418415</v>
+        <v>2.902719413179972</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.938181739968691</v>
+        <v>4.733853070557217</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.902719413179972</v>
+        <v>2.31201720479433e-17</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.733853070557217</v>
+        <v>5121583771.966123</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.31201720479433e-17</v>
+        <v>2.340208602918524e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>5121583771.966123</v>
+        <v>606.4564550294069</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.340208602918524e-08</v>
+        <v>0.0001390231166780053</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>606.4564550294069</v>
+        <v>9.402596110976226</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001390231166780053</v>
+        <v>1.190039532050833</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.402596110976226</v>
+        <v>0.01229086881211162</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.190039532050833</v>
+        <v>3.293056756806819</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01229086881211162</v>
+        <v>0.96251746874335</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.293056756806819</v>
+        <v>1.102045305773411</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.96251746874335</v>
+        <v>200</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.102045305773411</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>1.19504386620028</v>
       </c>
     </row>
@@ -10982,7 +10754,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.381333574748019</v>
+        <v>1.403559830460562</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.6822506510079</v>
@@ -11071,7 +10843,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.387580665085469</v>
+        <v>1.411328472487024</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.549597292623921</v>
@@ -11160,7 +10932,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.411354637971338</v>
+        <v>1.436165050316482</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.580714067062398</v>
@@ -11249,7 +11021,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.433859099642856</v>
+        <v>1.459518246383515</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.641908688531423</v>
@@ -11338,7 +11110,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.424985783405458</v>
+        <v>1.449677405893263</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.797395433381809</v>
@@ -11427,7 +11199,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.45231255507716</v>
+        <v>1.477298707328489</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.582886330816674</v>
@@ -11516,7 +11288,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.44250302946834</v>
+        <v>1.461126705023441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.52252202666191</v>
@@ -11605,7 +11377,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.445202213649401</v>
+        <v>1.461367751821405</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.427009449664316</v>
@@ -11694,7 +11466,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.4436986127896</v>
+        <v>1.462661245128959</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.283066447562913</v>
@@ -11783,7 +11555,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.421085619109424</v>
+        <v>1.435135731595413</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.457286852248809</v>
@@ -11872,7 +11644,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.387614607927894</v>
+        <v>1.402711729326012</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.515112102743902</v>
@@ -11961,7 +11733,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.377386333802805</v>
+        <v>1.392087425454</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.474213260169394</v>
@@ -12050,7 +11822,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.364938084878723</v>
+        <v>1.380816292474826</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.645200528513735</v>
@@ -12139,7 +11911,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.361632170401776</v>
+        <v>1.379547574070169</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.576694843819067</v>
@@ -12228,7 +12000,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.371851089831353</v>
+        <v>1.390831045987712</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.607531423935013</v>
@@ -12317,7 +12089,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.350526575704419</v>
+        <v>1.367233292450942</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.430722441000683</v>
@@ -12406,7 +12178,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.353437535213399</v>
+        <v>1.371480064969184</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.567731443230296</v>
@@ -12495,7 +12267,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.345715243950701</v>
+        <v>1.366557631262819</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.368031710127402</v>
@@ -12584,7 +12356,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.34709841708412</v>
+        <v>1.364780367099319</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.460308912578013</v>
@@ -12673,7 +12445,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.347536164788939</v>
+        <v>1.368638513428801</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.536885900473339</v>
@@ -12762,7 +12534,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.347671960814452</v>
+        <v>1.366568512573257</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.631961615537091</v>
@@ -12851,7 +12623,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.352450920825871</v>
+        <v>1.37881451256387</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.55068219309557</v>
@@ -12940,7 +12712,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.35205660104513</v>
+        <v>1.377661188978427</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.529047886521842</v>
@@ -13029,7 +12801,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.354715079024507</v>
+        <v>1.382301447981408</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.556638718434551</v>
@@ -13118,7 +12890,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.363665584395025</v>
+        <v>1.38968476880958</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.599109225823599</v>
@@ -13207,7 +12979,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.391395091772103</v>
+        <v>1.417978904197574</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.408550657990472</v>
@@ -13296,7 +13068,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.409613167107949</v>
+        <v>1.440441056140717</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.250113891942671</v>
@@ -13385,7 +13157,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.434165239590659</v>
+        <v>1.467297428235109</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.824259621236208</v>
@@ -13474,7 +13246,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.425467725230017</v>
+        <v>1.459581958063055</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.457159350058424</v>
@@ -13563,7 +13335,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.417395521313787</v>
+        <v>1.450424628134208</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.429376860120761</v>
@@ -13652,7 +13424,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.435073221697545</v>
+        <v>1.462312839159549</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.329098373169756</v>
@@ -13741,7 +13513,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.432827216164522</v>
+        <v>1.463200679772714</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.556870874034814</v>
@@ -13830,7 +13602,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.453694081713577</v>
+        <v>1.484085214761577</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.252993133954934</v>
@@ -13919,7 +13691,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.457320476192011</v>
+        <v>1.488568702742601</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.500610794311946</v>
@@ -14008,7 +13780,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.458315337092696</v>
+        <v>1.492339288672018</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.366495554522792</v>
@@ -14097,7 +13869,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.439334434798285</v>
+        <v>1.47225120628894</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.397138837323342</v>
@@ -14186,7 +13958,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.415433089879786</v>
+        <v>1.444477146578475</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.445083725346266</v>
@@ -14275,7 +14047,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.37505327339494</v>
+        <v>1.405113664696396</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.305651049793618</v>
@@ -14364,7 +14136,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.380659059804042</v>
+        <v>1.411571468119864</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.31508726998687</v>
@@ -14453,7 +14225,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.386277877143762</v>
+        <v>1.418080693586923</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.385628472999161</v>
@@ -14542,7 +14314,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.395874993258099</v>
+        <v>1.429638435445945</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.449201474858979</v>
@@ -14631,7 +14403,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.404050365970295</v>
+        <v>1.438847443111408</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.535610713597192</v>
@@ -14720,7 +14492,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.411891342925442</v>
+        <v>1.445599411417144</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.518223978816728</v>
@@ -14809,7 +14581,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.438054700705775</v>
+        <v>1.472317226597122</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.620325829237996</v>
@@ -14898,7 +14670,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.436302863418279</v>
+        <v>1.468753025235772</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.610272259884982</v>
@@ -14987,7 +14759,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.442896754395101</v>
+        <v>1.477634779775122</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.151160463638883</v>
@@ -15076,7 +14848,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.448786933925765</v>
+        <v>1.484712864024605</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.517575731727939</v>
@@ -15165,7 +14937,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.442696813278758</v>
+        <v>1.476089826100031</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.438181902909213</v>
@@ -15254,7 +15026,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.457479372811211</v>
+        <v>1.492989397704219</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.590241599762948</v>
@@ -15343,7 +15115,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.459714633124283</v>
+        <v>1.494578101756787</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.464715183603376</v>
@@ -15432,7 +15204,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.468835665945716</v>
+        <v>1.503625906493776</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.609453770497496</v>
@@ -15521,7 +15293,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.499172426213517</v>
+        <v>1.53128494547237</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.448380641000615</v>
@@ -15610,7 +15382,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.522023001398189</v>
+        <v>1.554463578595036</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.413537866590244</v>
@@ -15699,7 +15471,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.496967069063257</v>
+        <v>1.527347083017578</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.53915445204463</v>
@@ -15788,7 +15560,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.489449860988272</v>
+        <v>1.518621229804353</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.483527763217364</v>
@@ -15877,7 +15649,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.471375926308253</v>
+        <v>1.497986950397977</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.47312693744948</v>
@@ -15966,7 +15738,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.466785915054059</v>
+        <v>1.489687831614051</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.537386072554133</v>
@@ -16055,7 +15827,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.449838586232773</v>
+        <v>1.473932805701046</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.56756054018703</v>
@@ -16144,7 +15916,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.443939567273464</v>
+        <v>1.467903013023568</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.51431317355955</v>
@@ -16233,7 +16005,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.428469156578466</v>
+        <v>1.452564373954596</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.630703962924943</v>
@@ -16322,7 +16094,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.447947698817418</v>
+        <v>1.46937492212723</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.532849253686961</v>
@@ -16411,7 +16183,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.428963225441265</v>
+        <v>1.451949395309045</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.61870405598192</v>
@@ -16500,7 +16272,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.433969044399224</v>
+        <v>1.456446258517036</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.529114899027965</v>
@@ -16589,7 +16361,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.42235515854419</v>
+        <v>1.449032857486375</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.632656621626991</v>
@@ -16678,7 +16450,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.406472518014356</v>
+        <v>1.429196833947631</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.580402880396683</v>
@@ -16767,7 +16539,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.400316968276683</v>
+        <v>1.42525085869724</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.593694354450798</v>
@@ -16856,7 +16628,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.406533334919468</v>
+        <v>1.431904699339057</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.671636724020961</v>
@@ -16945,7 +16717,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.427837639452237</v>
+        <v>1.455918520276791</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.555202007948635</v>
@@ -17034,7 +16806,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.448638136794552</v>
+        <v>1.480368762608542</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.594382445596819</v>
@@ -17123,7 +16895,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.479246558106111</v>
+        <v>1.514370044188982</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.669355751614921</v>
@@ -17212,7 +16984,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.49539891014219</v>
+        <v>1.532860827430668</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.692165499732459</v>
@@ -17301,7 +17073,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.50502365842793</v>
+        <v>1.54568209633003</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.556359521532315</v>
@@ -17390,7 +17162,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.473511132686395</v>
+        <v>1.507007933382259</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.430416236203379</v>
@@ -17479,7 +17251,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.438361326618942</v>
+        <v>1.468108972364415</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.313810566496842</v>
@@ -17568,7 +17340,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.431031945680803</v>
+        <v>1.464483827001696</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.481499690769193</v>
@@ -17657,7 +17429,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.436841961777785</v>
+        <v>1.472049629062218</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.607616906258053</v>
@@ -17746,7 +17518,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.435063934520167</v>
+        <v>1.468238663696163</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.629656797263211</v>
@@ -17835,7 +17607,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.419236327200995</v>
+        <v>1.44839442638604</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.645357708089793</v>
@@ -17924,7 +17696,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.432358416411939</v>
+        <v>1.461541502974181</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.265278500108303</v>
@@ -18013,7 +17785,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.448203732502116</v>
+        <v>1.47735852398134</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.241537155162085</v>
@@ -18102,7 +17874,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.456242830681682</v>
+        <v>1.487069714196125</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.527243521474242</v>
@@ -18388,7 +18160,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.457363620434287</v>
+        <v>1.486157145424</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.002194137380315</v>
@@ -18477,7 +18249,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456314368568806</v>
+        <v>1.482981456797325</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.010133784560067</v>
@@ -18566,7 +18338,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.452711685080898</v>
+        <v>1.480364218859366</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.000274881936841</v>
@@ -18655,7 +18427,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.451460966514476</v>
+        <v>1.479506104693536</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.989361056501001</v>
@@ -18744,7 +18516,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.45991039542715</v>
+        <v>1.489620831775401</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.983312124634858</v>
@@ -18833,7 +18605,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.46302613416451</v>
+        <v>1.492636123079474</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.993302774220037</v>
@@ -18922,7 +18694,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.437334396189559</v>
+        <v>1.462796282439881</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.039564826372066</v>
@@ -19011,7 +18783,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.459955525016167</v>
+        <v>1.480949788413413</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.138883406458395</v>
@@ -19100,7 +18872,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.509524967062592</v>
+        <v>1.529641350636782</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.290822496501685</v>
@@ -19189,7 +18961,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.492507618293788</v>
+        <v>1.507529298747592</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.138421665257709</v>
@@ -19278,7 +19050,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.469520266536469</v>
+        <v>1.487410089515821</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.142806168406924</v>
@@ -19367,7 +19139,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.480955098684756</v>
+        <v>1.49655318796474</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.261081264286962</v>
@@ -19456,7 +19228,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.482174003327383</v>
+        <v>1.493615968457863</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.08520167273194</v>
@@ -19545,7 +19317,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.529476465650198</v>
+        <v>1.532756162844334</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.211868082970341</v>
@@ -19634,7 +19406,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.531884131418324</v>
+        <v>1.534538125101973</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.240528612908208</v>
@@ -19723,7 +19495,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.528760815066256</v>
+        <v>1.533714602967843</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.273714689224314</v>
@@ -19812,7 +19584,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.540917414720038</v>
+        <v>1.546496409643122</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.232043874661184</v>
@@ -19901,7 +19673,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544732446749153</v>
+        <v>1.551466761201344</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.288060398863183</v>
@@ -19990,7 +19762,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.547455049833953</v>
+        <v>1.554415085377177</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.300201201641836</v>
@@ -20079,7 +19851,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.548200755469549</v>
+        <v>1.555692980214117</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.278231955543623</v>
@@ -20168,7 +19940,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.543043938584314</v>
+        <v>1.550686973210691</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.296091563921432</v>
@@ -20257,7 +20029,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.615104420064214</v>
+        <v>1.609471925423185</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.336417484787774</v>
@@ -20346,7 +20118,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606462711504133</v>
+        <v>1.592566637679566</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.61617924155741</v>
@@ -20435,7 +20207,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555818312283897</v>
+        <v>1.551221178875667</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.422063225327605</v>
@@ -20524,7 +20296,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.553501267309093</v>
+        <v>1.550723543713348</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.478913988874045</v>
@@ -20613,7 +20385,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.542425142922807</v>
+        <v>1.537819477273502</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.542045217925566</v>
@@ -20702,7 +20474,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.533432866016198</v>
+        <v>1.524605707236133</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.130393503821166</v>
@@ -20791,7 +20563,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.537830145076059</v>
+        <v>1.527035063869567</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.50931556099363</v>
@@ -20880,7 +20652,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.508537901953625</v>
+        <v>1.500936052046067</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.342734305917179</v>
@@ -20969,7 +20741,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.526621807548354</v>
+        <v>1.514764852231437</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.104156547267509</v>
@@ -21058,7 +20830,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.517109179987669</v>
+        <v>1.506579530277634</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.302092809382403</v>
@@ -21147,7 +20919,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.513882274864062</v>
+        <v>1.498402209026689</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.286520182880999</v>
@@ -21236,7 +21008,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.50693373675309</v>
+        <v>1.491640921661251</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.290073741894748</v>
@@ -21325,7 +21097,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.504634428224716</v>
+        <v>1.489025702512576</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.339643385325284</v>
@@ -21414,7 +21186,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.503902872450368</v>
+        <v>1.487665332829548</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.212461891182322</v>
@@ -21503,7 +21275,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.499565540496672</v>
+        <v>1.483333793917894</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.324730185282262</v>
@@ -21592,7 +21364,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.506182493390935</v>
+        <v>1.493181478482513</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.279775601362568</v>
@@ -21681,7 +21453,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.525420467768215</v>
+        <v>1.51207618941151</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.152100413959804</v>
@@ -21770,7 +21542,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.543788811483895</v>
+        <v>1.525821442357763</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.247586897683634</v>
@@ -21859,7 +21631,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.560286034481661</v>
+        <v>1.537369821622851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.234692276162848</v>
@@ -21948,7 +21720,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.547007896682792</v>
+        <v>1.522313617278384</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.153097513297388</v>
@@ -22037,7 +21809,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.557967277601105</v>
+        <v>1.544731966213809</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.264691110261725</v>
@@ -22126,7 +21898,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548417860972117</v>
+        <v>1.527135786555408</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.246742234918763</v>
@@ -22215,7 +21987,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.523583785080627</v>
+        <v>1.525428309339381</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.150750006619783</v>
@@ -22304,7 +22076,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.51574099175463</v>
+        <v>1.506282198697303</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.066764173432449</v>
@@ -22393,7 +22165,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.519909072589558</v>
+        <v>1.514712303617712</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.165614784042128</v>
@@ -22482,7 +22254,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.52354192980523</v>
+        <v>1.524760186517687</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.150262538147141</v>
@@ -22571,7 +22343,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.514422606470538</v>
+        <v>1.515566088191654</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.06541744258525</v>
@@ -22660,7 +22432,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.50775167359688</v>
+        <v>1.510154984238501</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.102215261064462</v>
@@ -22749,7 +22521,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.514599143171384</v>
+        <v>1.515923114601201</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.094075011871548</v>
@@ -22838,7 +22610,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.515367502784016</v>
+        <v>1.516415052211489</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.106936749962356</v>
@@ -22927,7 +22699,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.517724696776861</v>
+        <v>1.522937299500278</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.118184673826228</v>
@@ -23016,7 +22788,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.51438591516748</v>
+        <v>1.511747574765671</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.078402171572876</v>
@@ -23105,7 +22877,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.510173954033652</v>
+        <v>1.505390769081669</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.108901068328703</v>
@@ -23194,7 +22966,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.507952956966423</v>
+        <v>1.502579085713676</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.132966671319718</v>
@@ -23283,7 +23055,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.538587769913139</v>
+        <v>1.527196130383211</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.169870296429091</v>
@@ -23372,7 +23144,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.543669835372655</v>
+        <v>1.526988013336153</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.002780549445928</v>
@@ -23461,7 +23233,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.609415344568736</v>
+        <v>1.579557631360943</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.152465520131611</v>
@@ -23550,7 +23322,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.644523100166236</v>
+        <v>1.608709137071005</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.893564618393197</v>
@@ -23639,7 +23411,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.652225814275576</v>
+        <v>1.620893021454795</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.628850503876948</v>
@@ -23728,7 +23500,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.653384846069702</v>
+        <v>1.620255889044386</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.710556440953988</v>
@@ -23817,7 +23589,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.655540711092454</v>
+        <v>1.618289613721943</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.48161548121726</v>
@@ -23906,7 +23678,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.683513468723994</v>
+        <v>1.640570226481923</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.883691833848742</v>
@@ -23995,7 +23767,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.699969368920581</v>
+        <v>1.651865536986004</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.166128067399598</v>
@@ -24084,7 +23856,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.680268483908042</v>
+        <v>1.638206646675126</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.00690099815742</v>
@@ -24173,7 +23945,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.680002574015079</v>
+        <v>1.63955409762945</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.282535164793571</v>
@@ -24262,7 +24034,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.688972906136195</v>
+        <v>1.649077942042322</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.306268163943513</v>
@@ -24351,7 +24123,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.689066679178642</v>
+        <v>1.661493769064502</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.082920485329308</v>
@@ -24440,7 +24212,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.69635429106894</v>
+        <v>1.674069247950468</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.26378493378429</v>
@@ -24529,7 +24301,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.711256608185644</v>
+        <v>1.690318871038077</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.5435854828818</v>
@@ -24618,7 +24390,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.702361873408815</v>
+        <v>1.684627941300517</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.384193387969681</v>
@@ -24707,7 +24479,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.717625622722278</v>
+        <v>1.66928142467578</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.855706432631221</v>
@@ -24796,7 +24568,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.638354051869487</v>
+        <v>1.629060258005172</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.932938489987435</v>
@@ -24885,7 +24657,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.634972153832566</v>
+        <v>1.625405234293922</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.951267287949843</v>
@@ -24974,7 +24746,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.632300646366562</v>
+        <v>1.630072308703874</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.008703109616533</v>
@@ -25063,7 +24835,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.638060027173674</v>
+        <v>1.638517931220318</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.992190766166238</v>
@@ -25152,7 +24924,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.635243020184491</v>
+        <v>1.63110017404404</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.016542973321088</v>
@@ -25241,7 +25013,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.606393287872335</v>
+        <v>1.613918544578713</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.056056815091358</v>
@@ -25330,7 +25102,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.602821130864585</v>
+        <v>1.608012409639794</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.039281391794372</v>
@@ -25419,7 +25191,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.608656799499057</v>
+        <v>1.612582621553936</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.090087563371841</v>
@@ -25508,7 +25280,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.603918091743801</v>
+        <v>1.606849553143955</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.075522652077291</v>
@@ -25794,7 +25566,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.433894030750449</v>
+        <v>1.458030167470812</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.156372628359511</v>
@@ -25883,7 +25655,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.440917252405891</v>
+        <v>1.463562401186578</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.157169271053834</v>
@@ -25972,7 +25744,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.445438692959862</v>
+        <v>1.465929729199605</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.16311882131078</v>
@@ -26061,7 +25833,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.460658928129965</v>
+        <v>1.48146291477971</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.170417328241039</v>
@@ -26150,7 +25922,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.463053977414377</v>
+        <v>1.483482018259016</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.158468339952112</v>
@@ -26239,7 +26011,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.467360744084818</v>
+        <v>1.487899878271715</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.150969123299758</v>
@@ -26328,7 +26100,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.435701454397668</v>
+        <v>1.443363749843558</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.157685947747862</v>
@@ -26417,7 +26189,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.440475556202234</v>
+        <v>1.45000496065344</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.325941091421395</v>
@@ -26506,7 +26278,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.452095456257355</v>
+        <v>1.464703432730896</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.346374338583949</v>
@@ -26595,7 +26367,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.462303904558886</v>
+        <v>1.474568371628999</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.251867387799467</v>
@@ -26684,7 +26456,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.440090600960693</v>
+        <v>1.452904443242808</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.30110653178409</v>
@@ -26773,7 +26545,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.423941818128193</v>
+        <v>1.436400556876416</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.374192965386855</v>
@@ -26862,7 +26634,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.415645189002684</v>
+        <v>1.429734348468197</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.243525001572303</v>
@@ -26951,7 +26723,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.452658712058823</v>
+        <v>1.466248654596221</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.419412318313575</v>
@@ -27040,7 +26812,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.448383014925899</v>
+        <v>1.463935695041475</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.524018554544949</v>
@@ -27129,7 +26901,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.425574746255254</v>
+        <v>1.443064617212796</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.428064510292083</v>
@@ -27218,7 +26990,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.424044668639473</v>
+        <v>1.441390781382582</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.423250208922245</v>
@@ -27307,7 +27079,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.425212724075955</v>
+        <v>1.442501460392537</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.402750237343548</v>
@@ -27396,7 +27168,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.42383965805601</v>
+        <v>1.439966245237458</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.464181150270061</v>
@@ -27485,7 +27257,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.420062571310738</v>
+        <v>1.437761953291322</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.482666648960232</v>
@@ -27574,7 +27346,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.422466131820306</v>
+        <v>1.43762640700391</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.534782861868312</v>
@@ -27663,7 +27435,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.46204895789698</v>
+        <v>1.495823235623713</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.42529629631818</v>
@@ -27752,7 +27524,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.481428605606859</v>
+        <v>1.506122799244829</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.495504511184377</v>
@@ -27841,7 +27613,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.465102450423354</v>
+        <v>1.495997560484436</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.398367544519129</v>
@@ -27930,7 +27702,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.455196370368449</v>
+        <v>1.488139747105667</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.411472002282139</v>
@@ -28019,7 +27791,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.452341339534648</v>
+        <v>1.481936159638369</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.509859874167973</v>
@@ -28108,7 +27880,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.471636711354776</v>
+        <v>1.499692673895277</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.161205015178355</v>
@@ -28197,7 +27969,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.491086551160919</v>
+        <v>1.524782958420689</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.657389935811432</v>
@@ -28286,7 +28058,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.462426224240966</v>
+        <v>1.493226803797646</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.686266835255218</v>
@@ -28375,7 +28147,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.484453681027406</v>
+        <v>1.512517456581221</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.41228234050867</v>
@@ -28464,7 +28236,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.497179124210316</v>
+        <v>1.520938784178663</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.661983290763339</v>
@@ -28553,7 +28325,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.498618499065819</v>
+        <v>1.51878192113736</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.720530279485572</v>
@@ -28642,7 +28414,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.504740841055681</v>
+        <v>1.525803576418901</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.514151572728547</v>
@@ -28731,7 +28503,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.504449131017997</v>
+        <v>1.524760459055449</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.678101595864715</v>
@@ -28820,7 +28592,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.504142116219078</v>
+        <v>1.527394140443653</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.71689671636492</v>
@@ -28909,7 +28681,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.49965399803014</v>
+        <v>1.52231074842581</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.731366602256182</v>
@@ -28998,7 +28770,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.495530364079735</v>
+        <v>1.515849674384654</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.65841699858071</v>
@@ -29087,7 +28859,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.494731706746489</v>
+        <v>1.514268837782345</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.676440383029374</v>
@@ -29176,7 +28948,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.487162409864411</v>
+        <v>1.506902373711714</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.636128169271343</v>
@@ -29265,7 +29037,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.519923034622453</v>
+        <v>1.531507774063029</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.554140889305468</v>
@@ -29354,7 +29126,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.523586596698564</v>
+        <v>1.532427973382925</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.274785598873081</v>
@@ -29443,7 +29215,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.533481818641681</v>
+        <v>1.546672033761859</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.72475957597765</v>
@@ -29532,7 +29304,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.54135798339886</v>
+        <v>1.550043834912423</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.560681309695088</v>
@@ -29621,7 +29393,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.578521961338073</v>
+        <v>1.587050556426106</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.634693202351561</v>
@@ -29710,7 +29482,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.5758656915236</v>
+        <v>1.584716653356411</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.501715096174095</v>
@@ -29799,7 +29571,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.568064526614725</v>
+        <v>1.577672868940585</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.510532778282077</v>
@@ -29888,7 +29660,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.560830863668083</v>
+        <v>1.577120021037664</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.529142027021037</v>
@@ -29977,7 +29749,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.547043899399207</v>
+        <v>1.563348486705446</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.59425144410359</v>
@@ -30066,7 +29838,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.543169958773505</v>
+        <v>1.558100759569268</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.635509514705139</v>
@@ -30155,7 +29927,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.54501894986309</v>
+        <v>1.559386578727471</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.688045262414972</v>
@@ -30244,7 +30016,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.548743973684656</v>
+        <v>1.565574318289362</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.660337372653493</v>
@@ -30333,7 +30105,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.553124589125022</v>
+        <v>1.569505674157355</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.56760358421309</v>
@@ -30422,7 +30194,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.588158302745834</v>
+        <v>1.603588954941912</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.637504460666522</v>
@@ -30511,7 +30283,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.578562636027949</v>
+        <v>1.594435313486702</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.713953340955439</v>
@@ -30600,7 +30372,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.57788305756943</v>
+        <v>1.594035330414313</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.807860087666044</v>
@@ -30689,7 +30461,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.581084346177723</v>
+        <v>1.601498044652713</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.945476074466187</v>
@@ -30778,7 +30550,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.578484433486993</v>
+        <v>1.597977311256781</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.021894588346816</v>
@@ -30867,7 +30639,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.56891742844127</v>
+        <v>1.587070775456327</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.067679968517207</v>
@@ -30956,7 +30728,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.55596492217238</v>
+        <v>1.576596712073635</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.003357315579376</v>
@@ -31045,7 +30817,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.538919672901107</v>
+        <v>1.561606506610791</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.836405899969984</v>
@@ -31134,7 +30906,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.522703699560272</v>
+        <v>1.544425669980325</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.066880492852667</v>
@@ -31223,7 +30995,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.512640354816505</v>
+        <v>1.537227099366882</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.75179321373176</v>
@@ -31312,7 +31084,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.498842608856614</v>
+        <v>1.526013513780042</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.838462864336289</v>
@@ -31401,7 +31173,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.508624900322359</v>
+        <v>1.536730621397217</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.73776048193408</v>
@@ -31490,7 +31262,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.505270528075753</v>
+        <v>1.534273426572557</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.661212747685942</v>
@@ -31579,7 +31351,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.511248979159897</v>
+        <v>1.536797063567534</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.780829228090341</v>
@@ -31668,7 +31440,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.512511752281596</v>
+        <v>1.538844526245068</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.726383017267187</v>
@@ -31757,7 +31529,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.528314222285408</v>
+        <v>1.552453582678213</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.782567298389046</v>
@@ -31846,7 +31618,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.539921440375449</v>
+        <v>1.568441361364731</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.722114160910179</v>
@@ -31935,7 +31707,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.551760927227509</v>
+        <v>1.58269975187009</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.748396683507064</v>
@@ -32024,7 +31796,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.573174085107518</v>
+        <v>1.603017406195393</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.789346321485401</v>
@@ -32113,7 +31885,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.563624492641045</v>
+        <v>1.583310532758994</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.33471069765775</v>
@@ -32202,7 +31974,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.497881223402409</v>
+        <v>1.532446235785598</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.255899603493632</v>
@@ -32291,7 +32063,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.436802058854896</v>
+        <v>1.471444919165614</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.164338784833785</v>
@@ -32380,7 +32152,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.367512407375245</v>
+        <v>1.396400190684379</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.069870771173277</v>
@@ -32469,7 +32241,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.368555438346626</v>
+        <v>1.39624708954177</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.156144338732465</v>
@@ -32558,7 +32330,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.368441994559692</v>
+        <v>1.392974476251572</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.090097404920687</v>
@@ -32647,7 +32419,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.344361169623441</v>
+        <v>1.366502919886702</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.21470353900109</v>
@@ -32736,7 +32508,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.333890734789331</v>
+        <v>1.355036283930632</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.150687112422828</v>
@@ -32825,7 +32597,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.329421504312859</v>
+        <v>1.349762415991816</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.1937474478181</v>
@@ -32914,7 +32686,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.323432654725707</v>
+        <v>1.342949921079133</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.220006895477009</v>
@@ -33200,7 +32972,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.649234733142317</v>
+        <v>1.667492554874667</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.50858489883237</v>
@@ -33289,7 +33061,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.656271044774774</v>
+        <v>1.673343185905307</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.43099614195038</v>
@@ -33378,7 +33150,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.668949395904898</v>
+        <v>1.680938080405167</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.473903861414094</v>
@@ -33467,7 +33239,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.684368879246108</v>
+        <v>1.694524258572997</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.505488154311482</v>
@@ -33556,7 +33328,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.690038281860363</v>
+        <v>1.698909289282921</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.505516597589466</v>
@@ -33645,7 +33417,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.702028458780869</v>
+        <v>1.71130425974341</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.524673898404989</v>
@@ -33734,7 +33506,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.684459331034701</v>
+        <v>1.694643246953207</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.428195237653687</v>
@@ -33823,7 +33595,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.667792200005607</v>
+        <v>1.677217907940266</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.264199612398075</v>
@@ -33912,7 +33684,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.669672088097288</v>
+        <v>1.67683215679157</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.499731801740809</v>
@@ -34001,7 +33773,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.647528286614091</v>
+        <v>1.654652716188368</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.357635828220675</v>
@@ -34090,7 +33862,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600055431721561</v>
+        <v>1.606670496432862</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.251870266381498</v>
@@ -34179,7 +33951,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.628149048148164</v>
+        <v>1.639148479503043</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.366150170975813</v>
@@ -34268,7 +34040,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.584384688901092</v>
+        <v>1.590807977545318</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.912523495779785</v>
@@ -34357,7 +34129,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.598835203449153</v>
+        <v>1.603243223588314</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.770639664910087</v>
@@ -34446,7 +34218,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.609902976643778</v>
+        <v>1.61759135439401</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.010387717907851</v>
@@ -34535,7 +34307,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.594108891397618</v>
+        <v>1.607724667837318</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.929519951700731</v>
@@ -34624,7 +34396,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.598478884340625</v>
+        <v>1.613968225891679</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.893667110109391</v>
@@ -34713,7 +34485,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.601291395692179</v>
+        <v>1.621811766754848</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.889665780208006</v>
@@ -34802,7 +34574,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.60604193177335</v>
+        <v>1.627231115299582</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.854599373881901</v>
@@ -34891,7 +34663,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.603648817832605</v>
+        <v>1.631360781574595</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.954067402071076</v>
@@ -34980,7 +34752,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.602797115771037</v>
+        <v>1.623842219816772</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.943994455189952</v>
@@ -35069,7 +34841,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.617946268102404</v>
+        <v>1.641199671801491</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.070307752098599</v>
@@ -35158,7 +34930,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.623085267325806</v>
+        <v>1.641445927503776</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.172716145886651</v>
@@ -35247,7 +35019,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.617866207036294</v>
+        <v>1.64420000696376</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.073235178296468</v>
@@ -35336,7 +35108,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.628753314706276</v>
+        <v>1.653046995399721</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.130835903449517</v>
@@ -35425,7 +35197,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.639520866277268</v>
+        <v>1.665621247112793</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.050419340946117</v>
@@ -35514,7 +35286,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.604217266472459</v>
+        <v>1.631952312238193</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.790118317512965</v>
@@ -35603,7 +35375,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.625729593078776</v>
+        <v>1.652306781144687</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.211551931206708</v>
@@ -35692,7 +35464,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.617439406109558</v>
+        <v>1.64321355169621</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.931236931742697</v>
@@ -35781,7 +35553,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.611104314870812</v>
+        <v>1.635913997964591</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.939913117757703</v>
@@ -35870,7 +35642,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.622705698865256</v>
+        <v>1.635565824406984</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.964403613150888</v>
@@ -35959,7 +35731,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625686260692694</v>
+        <v>1.639496341118007</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.848752917521825</v>
@@ -36048,7 +35820,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.63648028460245</v>
+        <v>1.645453636656725</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.699330087719468</v>
@@ -36137,7 +35909,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.636993665803582</v>
+        <v>1.642395042261973</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.967080234398638</v>
@@ -36226,7 +35998,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.638893883761987</v>
+        <v>1.647412319214397</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.052642882779284</v>
@@ -36315,7 +36087,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.630811025274232</v>
+        <v>1.641736298304097</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.023393882530512</v>
@@ -36404,7 +36176,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.611761888576286</v>
+        <v>1.629049719437811</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.966102647397999</v>
@@ -36493,7 +36265,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.607736816213669</v>
+        <v>1.617687364700419</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.682111312281365</v>
@@ -36582,7 +36354,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.612714432360106</v>
+        <v>1.618303368160815</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.764324283320882</v>
@@ -36671,7 +36443,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.616810989829865</v>
+        <v>1.624470385978688</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.773709933402266</v>
@@ -36760,7 +36532,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.629361668179159</v>
+        <v>1.631692503118702</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.809479861172999</v>
@@ -36849,7 +36621,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647507613486735</v>
+        <v>1.654423042465867</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.025469286941072</v>
@@ -36938,7 +36710,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.655634167045921</v>
+        <v>1.658701985953801</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.978339581067584</v>
@@ -37027,7 +36799,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.674899482486424</v>
+        <v>1.67830263688985</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.313838637333236</v>
@@ -37116,7 +36888,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.671227487597134</v>
+        <v>1.671891634024919</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.112391700995163</v>
@@ -37205,7 +36977,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.674696338737899</v>
+        <v>1.681465450564666</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.25909489710748</v>
@@ -37294,7 +37066,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.671567574425367</v>
+        <v>1.679719147741634</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.012593879877247</v>
@@ -37383,7 +37155,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.659201594835103</v>
+        <v>1.669457633752123</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.086405669877383</v>
@@ -37472,7 +37244,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.662163107219337</v>
+        <v>1.677268172159544</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.374665090937075</v>
@@ -37561,7 +37333,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.662014789477477</v>
+        <v>1.676183934043584</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.086729127062093</v>
@@ -37650,7 +37422,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.667831176033425</v>
+        <v>1.680246664966233</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.008422069334866</v>
@@ -37739,7 +37511,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.680713958897277</v>
+        <v>1.692085034677116</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.098900667932063</v>
@@ -37828,7 +37600,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.692588428509797</v>
+        <v>1.70526624756461</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.24967057601842</v>
@@ -37917,7 +37689,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.685164567695516</v>
+        <v>1.701352578869375</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.917778863655268</v>
@@ -38006,7 +37778,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.690522010319323</v>
+        <v>1.705331014149906</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.208156490278396</v>
@@ -38095,7 +37867,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.682989272518363</v>
+        <v>1.695416030780511</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.070318350378575</v>
@@ -38184,7 +37956,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.678295594598445</v>
+        <v>1.685520262093282</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.076723808916883</v>
@@ -38273,7 +38045,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.67583297196242</v>
+        <v>1.68599035828961</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.31692769677786</v>
@@ -38362,7 +38134,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.669747452995921</v>
+        <v>1.681679176434724</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.716986017657395</v>
@@ -38451,7 +38223,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.662867543146044</v>
+        <v>1.675656891329891</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.0151069485888</v>
@@ -38540,7 +38312,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.669797913518777</v>
+        <v>1.678427326932819</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.865207747380393</v>
@@ -38629,7 +38401,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.661123110900539</v>
+        <v>1.672895257742</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.166914680806967</v>
@@ -38718,7 +38490,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.66926117277569</v>
+        <v>1.676338769585401</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.129809059446613</v>
@@ -38807,7 +38579,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.666258098803454</v>
+        <v>1.674462647618059</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.957074363877322</v>
@@ -38896,7 +38668,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.65523697703329</v>
+        <v>1.66499741881057</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.138115291007602</v>
@@ -38985,7 +38757,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.65849778833702</v>
+        <v>1.665724908049387</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.276246026227513</v>
@@ -39074,7 +38846,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.679142644520327</v>
+        <v>1.685148298200096</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.386414152846172</v>
@@ -39163,7 +38935,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.695710909955922</v>
+        <v>1.703408397013319</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.277935151482343</v>
@@ -39252,7 +39024,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.703965389317267</v>
+        <v>1.713642122147283</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.201179850139554</v>
@@ -39341,7 +39113,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.710057058369313</v>
+        <v>1.720220316502835</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.212466996671899</v>
@@ -39430,7 +39202,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.714897784757319</v>
+        <v>1.724661855551776</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.148724428389132</v>
@@ -39519,7 +39291,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.737235214544996</v>
+        <v>1.739711815656176</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.913643168175879</v>
@@ -39608,7 +39380,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.719163571632272</v>
+        <v>1.723152301154731</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.932309285783518</v>
@@ -39697,7 +39469,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.713625998594951</v>
+        <v>1.710033459715519</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.666179879753995</v>
@@ -39786,7 +39558,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.705348199995451</v>
+        <v>1.706440005966423</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.923376590809527</v>
@@ -39875,7 +39647,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.712063569127541</v>
+        <v>1.714273616815556</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.995983538264806</v>
@@ -39964,7 +39736,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.709459265702812</v>
+        <v>1.708797160426172</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.914900838837992</v>
@@ -40053,7 +39825,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.686499964606533</v>
+        <v>1.687795724496268</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.905610732539339</v>
@@ -40142,7 +39914,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.692692553234322</v>
+        <v>1.693493224074862</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.593399077443322</v>
@@ -40231,7 +40003,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.705546773559168</v>
+        <v>1.701623884586942</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.915044800326068</v>
@@ -40320,7 +40092,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.709581010523773</v>
+        <v>1.707441289326074</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.067579073154278</v>
@@ -40606,7 +40378,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.502829079867697</v>
+        <v>1.533655067439218</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.010431516121838</v>
@@ -40695,7 +40467,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.49809519804243</v>
+        <v>1.529195717193716</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.003089620326663</v>
@@ -40784,7 +40556,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.492302960099475</v>
+        <v>1.523771934720429</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.003940101708902</v>
@@ -40873,7 +40645,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.491276548319929</v>
+        <v>1.525107739449811</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.011192410221863</v>
@@ -40962,7 +40734,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.494304300542859</v>
+        <v>1.529541846349354</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.014068835221333</v>
@@ -41051,7 +40823,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.49642783397972</v>
+        <v>1.531508614073278</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.024491481081133</v>
@@ -41140,7 +40912,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.477054704993984</v>
+        <v>1.51455327951672</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.010463482313997</v>
@@ -41229,7 +41001,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.50292507034716</v>
+        <v>1.544897789976525</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.188782604564415</v>
@@ -41318,7 +41090,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.526821950792883</v>
+        <v>1.570441988651247</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.422748855330276</v>
@@ -41407,7 +41179,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.522883922596349</v>
+        <v>1.563452665332568</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.246397499707382</v>
@@ -41496,7 +41268,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.483572541140367</v>
+        <v>1.519743640041688</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.136448850168786</v>
@@ -41585,7 +41357,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.484321209483077</v>
+        <v>1.518167443875142</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.124951305192738</v>
@@ -41674,7 +41446,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.449170646285629</v>
+        <v>1.475243976194388</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.069103702825892</v>
@@ -41763,7 +41535,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.490365983793274</v>
+        <v>1.513513962229806</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.405317032037161</v>
@@ -41852,7 +41624,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491824529757109</v>
+        <v>1.520751843433191</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.41018597123828</v>
@@ -41941,7 +41713,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.479635994385964</v>
+        <v>1.509939451047178</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.407591268839433</v>
@@ -42030,7 +41802,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.494216156515603</v>
+        <v>1.526392892772978</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.426168546130147</v>
@@ -42119,7 +41891,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.499706249909258</v>
+        <v>1.533867701673581</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.415147522455215</v>
@@ -42208,7 +41980,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.504665219885261</v>
+        <v>1.536903746069015</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.416454283983733</v>
@@ -42297,7 +42069,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.504661340294103</v>
+        <v>1.5382322310122</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.424596812811978</v>
@@ -42386,7 +42158,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.498786972794602</v>
+        <v>1.532963242528756</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.398857482822645</v>
@@ -42475,7 +42247,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525143462077287</v>
+        <v>1.555712040721102</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.421050457633108</v>
@@ -42564,7 +42336,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.512704704368719</v>
+        <v>1.534142500124418</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.367744333853148</v>
@@ -42653,7 +42425,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.47196978932862</v>
+        <v>1.495124952653935</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.377402221902321</v>
@@ -42742,7 +42514,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.464390898476515</v>
+        <v>1.488035195704983</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.425040422118131</v>
@@ -42831,7 +42603,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.446308025692344</v>
+        <v>1.471463893180634</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.269493297765851</v>
@@ -42920,7 +42692,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.435790208258196</v>
+        <v>1.448463217733911</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.013398452474705</v>
@@ -43009,7 +42781,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.451103686246636</v>
+        <v>1.466556336058665</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.386121822726659</v>
@@ -43098,7 +42870,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.430853299925573</v>
+        <v>1.442457662627164</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.452172752209062</v>
@@ -43187,7 +42959,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.446465544640004</v>
+        <v>1.45271300137947</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.240961336892553</v>
@@ -43276,7 +43048,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.456654683517155</v>
+        <v>1.462365070214461</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.504429183292676</v>
@@ -43365,7 +43137,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.44990063077174</v>
+        <v>1.455717375459956</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.433049071416213</v>
@@ -43454,7 +43226,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.452557398397225</v>
+        <v>1.458497256330695</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.454672775865221</v>
@@ -43543,7 +43315,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.450202745163301</v>
+        <v>1.456362930206327</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.431453669016066</v>
@@ -43632,7 +43404,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.452519379496107</v>
+        <v>1.460369087523578</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.316904450424053</v>
@@ -43721,7 +43493,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.45308746330798</v>
+        <v>1.460024956591074</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.403590194989484</v>
@@ -43810,7 +43582,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.44836836180935</v>
+        <v>1.456028734420182</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.460464240328281</v>
@@ -43899,7 +43671,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.473445488763591</v>
+        <v>1.476852760658554</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.316323252244786</v>
@@ -43988,7 +43760,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.48483849618022</v>
+        <v>1.485836023484862</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.511162953070045</v>
@@ -44077,7 +43849,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.5111558670165</v>
+        <v>1.50425200107789</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.222969556640476</v>
@@ -44166,7 +43938,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.538214426871287</v>
+        <v>1.52237629908599</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.170943992343227</v>
@@ -44255,7 +44027,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.552513269334077</v>
+        <v>1.543101889866593</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.389860598268465</v>
@@ -44344,7 +44116,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.557233403880759</v>
+        <v>1.54419686760614</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.335653378459043</v>
@@ -44433,7 +44205,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596914152541984</v>
+        <v>1.586501716034676</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.129374347855733</v>
@@ -44522,7 +44294,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.58456288603877</v>
+        <v>1.570447507793192</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.03318812031383</v>
@@ -44611,7 +44383,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.576722648624158</v>
+        <v>1.56097872194097</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.958059721228218</v>
@@ -44700,7 +44472,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.582311548058571</v>
+        <v>1.563351679274519</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.86908330609521</v>
@@ -44789,7 +44561,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.57444418854033</v>
+        <v>1.552929151721529</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.763663931656372</v>
@@ -44878,7 +44650,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.591864837916195</v>
+        <v>1.568900217475954</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.9067253566784</v>
@@ -44967,7 +44739,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.593189311077694</v>
+        <v>1.567173811681866</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.045194006953518</v>
@@ -45056,7 +44828,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.594829848611663</v>
+        <v>1.570804742811</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.95004274123404</v>
@@ -45145,7 +44917,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.61535723016856</v>
+        <v>1.586222024009007</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.979981324593185</v>
@@ -45234,7 +45006,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.610999483920558</v>
+        <v>1.588018818270048</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.13362102974359</v>
@@ -45323,7 +45095,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.60641529424961</v>
+        <v>1.585170824986136</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.091323889365677</v>
@@ -45412,7 +45184,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.597094657940439</v>
+        <v>1.57938452744209</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.813928049234372</v>
@@ -45501,7 +45273,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.599247669988303</v>
+        <v>1.581203968332704</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.058921120162998</v>
@@ -45590,7 +45362,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.589119253911573</v>
+        <v>1.572746518548038</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.184630649108522</v>
@@ -45679,7 +45451,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.581462941246319</v>
+        <v>1.566262134249075</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.888942047825972</v>
@@ -45768,7 +45540,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.591874122821459</v>
+        <v>1.574755348343446</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.069035230896624</v>
@@ -45857,7 +45629,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.600658462291737</v>
+        <v>1.58659415453442</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.115778237225613</v>
@@ -45946,7 +45718,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.61288838119124</v>
+        <v>1.59630383133168</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.206672013883806</v>
@@ -46035,7 +45807,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.600344243824828</v>
+        <v>1.587471580760054</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.096504399914731</v>
@@ -46124,7 +45896,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.605631570100113</v>
+        <v>1.596847520579202</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.158247174225349</v>
@@ -46213,7 +45985,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.600294473929283</v>
+        <v>1.594908869021368</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.238834425038773</v>
@@ -46302,7 +46074,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.597163963763403</v>
+        <v>1.593153945111024</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.272276791398846</v>
@@ -46391,7 +46163,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.597886817719979</v>
+        <v>1.598230151666385</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.331778907353771</v>
@@ -46480,7 +46252,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.599723357039171</v>
+        <v>1.598355360794407</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.064912685401661</v>
@@ -46569,7 +46341,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.610553279399988</v>
+        <v>1.605946450940201</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.975239901303194</v>
@@ -46658,7 +46430,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.611969771326715</v>
+        <v>1.611661649150268</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.179467955736971</v>
@@ -46747,7 +46519,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.630774113735778</v>
+        <v>1.632387564400394</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.121034106611692</v>
@@ -46836,7 +46608,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.628423250045893</v>
+        <v>1.628205100525472</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.203112764530847</v>
@@ -46925,7 +46697,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.650347644338302</v>
+        <v>1.628046384917734</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.062958766052549</v>
@@ -47014,7 +46786,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.574534845865512</v>
+        <v>1.5857132508461</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.066887108087502</v>
@@ -47103,7 +46875,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.544238428954428</v>
+        <v>1.560718808190686</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.04746952737993</v>
@@ -47192,7 +46964,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.516855192895321</v>
+        <v>1.540485654620938</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.071671044478213</v>
@@ -47281,7 +47053,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.512646296245888</v>
+        <v>1.540242752850017</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.086280503708982</v>
@@ -47370,7 +47142,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.517584072914946</v>
+        <v>1.538575360129427</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.117266220482448</v>
@@ -47459,7 +47231,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.486218952320092</v>
+        <v>1.51135004252855</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.156773634363335</v>
@@ -47548,7 +47320,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.494264533672659</v>
+        <v>1.516048995929843</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.192579837749934</v>
@@ -47637,7 +47409,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.497517546845673</v>
+        <v>1.517661507317543</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.101576538804841</v>
@@ -47726,7 +47498,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.499730545742366</v>
+        <v>1.520611612393802</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.15558991449553</v>
@@ -48012,7 +47784,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.425119424675604</v>
+        <v>1.438477271745737</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.881644852108527</v>
@@ -48101,7 +47873,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.435387837411434</v>
+        <v>1.448425660893783</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.752513540129691</v>
@@ -48190,7 +47962,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.464291367767879</v>
+        <v>1.473701585269023</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.740595562301225</v>
@@ -48279,7 +48051,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.500346063782168</v>
+        <v>1.510498919743403</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.971867798305095</v>
@@ -48368,7 +48140,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.501044557620457</v>
+        <v>1.51461288091242</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.915704053760924</v>
@@ -48457,7 +48229,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.531350397474417</v>
+        <v>1.544861934346168</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.98439782149485</v>
@@ -48546,7 +48318,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.521654441620797</v>
+        <v>1.531645246417859</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.691311727737761</v>
@@ -48635,7 +48407,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.518402686402079</v>
+        <v>1.531710089868703</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.50504290441061</v>
@@ -48724,7 +48496,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.518867589103184</v>
+        <v>1.535154928364233</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.55296801184199</v>
@@ -48813,7 +48585,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.515981627366088</v>
+        <v>1.53493017996644</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.745754492741102</v>
@@ -48902,7 +48674,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.477809909818684</v>
+        <v>1.498010974377229</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.665715501762858</v>
@@ -48991,7 +48763,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.458793591561907</v>
+        <v>1.481574183757014</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.580698224346493</v>
@@ -49080,7 +48852,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.443297273539893</v>
+        <v>1.467508101536719</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.614355086455551</v>
@@ -49169,7 +48941,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.439593112512708</v>
+        <v>1.468392805222523</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.776415989712309</v>
@@ -49258,7 +49030,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.45585770950216</v>
+        <v>1.489213179575059</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.791925891961537</v>
@@ -49347,7 +49119,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.432098434593299</v>
+        <v>1.463140860312316</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.601103058800379</v>
@@ -49436,7 +49208,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.433869406353623</v>
+        <v>1.465979726541664</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.66661440753421</v>
@@ -49525,7 +49297,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.429899756417125</v>
+        <v>1.466404849775171</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.536161666895295</v>
@@ -49614,7 +49386,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.426864318423972</v>
+        <v>1.458920865083793</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.599270556886586</v>
@@ -49703,7 +49475,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.426792897584454</v>
+        <v>1.461833347063037</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.778528774697882</v>
@@ -49792,7 +49564,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.428507018161927</v>
+        <v>1.460374296568212</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.836087875089098</v>
@@ -49881,7 +49653,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.428252462399505</v>
+        <v>1.465761227860234</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.788372204929929</v>
@@ -49970,7 +49742,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.427841569505289</v>
+        <v>1.4621072767411</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.776264493564538</v>
@@ -50059,7 +49831,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.429843781870508</v>
+        <v>1.463422765747594</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.807411900848172</v>
@@ -50148,7 +49920,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.440827595601173</v>
+        <v>1.472023195391666</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.654363361151387</v>
@@ -50237,7 +50009,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.469534010688391</v>
+        <v>1.500514093817052</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.661108867501825</v>
@@ -50326,7 +50098,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.503293097951496</v>
+        <v>1.536631954071205</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.401537292220312</v>
@@ -50415,7 +50187,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.533875627970045</v>
+        <v>1.567326276212871</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.942200122934558</v>
@@ -50504,7 +50276,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.529117541861308</v>
+        <v>1.561371725824848</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.748586274199375</v>
@@ -50593,7 +50365,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.512232552540589</v>
+        <v>1.5421220498211</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.673211892971468</v>
@@ -50682,7 +50454,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.536663435410292</v>
+        <v>1.564545102530782</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.686367398224636</v>
@@ -50771,7 +50543,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.539204843346014</v>
+        <v>1.570693343635178</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.890050417541121</v>
@@ -50860,7 +50632,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.568653661562968</v>
+        <v>1.595164641430848</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.447472165740018</v>
@@ -50949,7 +50721,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.574476517813459</v>
+        <v>1.597047020327144</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.905289148770996</v>
@@ -51038,7 +50810,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.572041151649483</v>
+        <v>1.596513740546605</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.804632146287841</v>
@@ -51127,7 +50899,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.553009359081875</v>
+        <v>1.575916178499438</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.696678225017603</v>
@@ -51216,7 +50988,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.527137019190803</v>
+        <v>1.549067068343509</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.829410096105526</v>
@@ -51305,7 +51077,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.483871640669915</v>
+        <v>1.51046174874845</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.662474294942731</v>
@@ -51394,7 +51166,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.489549550767783</v>
+        <v>1.514575694462183</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.511298654445919</v>
@@ -51483,7 +51255,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.501528763929719</v>
+        <v>1.523721105199178</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.589961496423792</v>
@@ -51572,7 +51344,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.513336035467734</v>
+        <v>1.541890220536887</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.587487138552904</v>
@@ -51661,7 +51433,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.519184283745184</v>
+        <v>1.547406981149639</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.676231993618345</v>
@@ -51750,7 +51522,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.530492953651072</v>
+        <v>1.558950905589612</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.694771014020676</v>
@@ -51839,7 +51611,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.560661160613545</v>
+        <v>1.592002722788589</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.725098235190985</v>
@@ -51928,7 +51700,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.563685438203461</v>
+        <v>1.591322704442106</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.703208669379175</v>
@@ -52017,7 +51789,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.574352893799875</v>
+        <v>1.601148940161968</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.377902947418488</v>
@@ -52106,7 +51878,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58307201259323</v>
+        <v>1.612222366776316</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.645132214081606</v>
@@ -52195,7 +51967,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.558777262805328</v>
+        <v>1.588193577536796</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.459812738986194</v>
@@ -52284,7 +52056,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.575295837665336</v>
+        <v>1.609675826889287</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.6543279155308</v>
@@ -52373,7 +52145,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.580046699367788</v>
+        <v>1.613171555648811</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.431109451973918</v>
@@ -52462,7 +52234,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.601749753164452</v>
+        <v>1.635881484317648</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.682180878785508</v>
@@ -52551,7 +52323,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.63685178648175</v>
+        <v>1.668097876505408</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.405458166700581</v>
@@ -52640,7 +52412,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.673114017785509</v>
+        <v>1.705505751444767</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.604527316117196</v>
@@ -52729,7 +52501,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.650083514460012</v>
+        <v>1.684472491829712</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.73468475111374</v>
@@ -52818,7 +52590,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.644243181039237</v>
+        <v>1.680759251071715</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.624741074106006</v>
@@ -52907,7 +52679,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.62348630543504</v>
+        <v>1.656331761376947</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.657212315998749</v>
@@ -52996,7 +52768,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.621790401332258</v>
+        <v>1.652443411869156</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.71066679658954</v>
@@ -53085,7 +52857,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.6034819840824</v>
+        <v>1.636276238610924</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.725619658115098</v>
@@ -53174,7 +52946,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.585019100695702</v>
+        <v>1.614397280047428</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.708837281193894</v>
@@ -53263,7 +53035,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.575522338851304</v>
+        <v>1.604668779378375</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.75140647009977</v>
@@ -53352,7 +53124,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.594511535249064</v>
+        <v>1.622188586805292</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.685679821995439</v>
@@ -53441,7 +53213,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.577371546792877</v>
+        <v>1.607151996146414</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.764764345169677</v>
@@ -53530,7 +53302,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.596803715048787</v>
+        <v>1.624783755686543</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.768314029210198</v>
@@ -53619,7 +53391,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.587018735532033</v>
+        <v>1.620827955321614</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.783694125471023</v>
@@ -53708,7 +53480,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.56944227496112</v>
+        <v>1.601260759548997</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.535996944446302</v>
@@ -53797,7 +53569,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.561780249219543</v>
+        <v>1.596589441141068</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.724124820952501</v>
@@ -53886,7 +53658,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.567412489610749</v>
+        <v>1.603959517584291</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.789259091966485</v>
@@ -53975,7 +53747,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.583993732303542</v>
+        <v>1.622363595118218</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.659007424086926</v>
@@ -54064,7 +53836,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.60110795655253</v>
+        <v>1.641350942720485</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.791819766185085</v>
@@ -54153,7 +53925,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.624304509888842</v>
+        <v>1.666403114572407</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.718798938429219</v>
@@ -54242,7 +54014,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.64115234393757</v>
+        <v>1.683202891606057</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.817833609167321</v>
@@ -54331,7 +54103,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.645432820531377</v>
+        <v>1.690709620072682</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.866136100647177</v>
@@ -54420,7 +54192,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.611285741131971</v>
+        <v>1.647714529745637</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.553788735679605</v>
@@ -54509,7 +54281,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.577940014720207</v>
+        <v>1.611670134462971</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.481796076468281</v>
@@ -54598,7 +54370,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.570972627018545</v>
+        <v>1.607908247006336</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.811107709492526</v>
@@ -54687,7 +54459,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.574109715040885</v>
+        <v>1.61093486766663</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.837615818896559</v>
@@ -54776,7 +54548,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.56825552894209</v>
+        <v>1.602169435377165</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.763384640084249</v>
@@ -54865,7 +54637,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.541181133760247</v>
+        <v>1.573214298664814</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.826269044604633</v>
@@ -54954,7 +54726,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.550774869964576</v>
+        <v>1.581694558400635</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.490292346859531</v>
@@ -55043,7 +54815,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.559329073126334</v>
+        <v>1.589087198202019</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.426777246417025</v>
@@ -55132,7 +54904,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.561556392004703</v>
+        <v>1.591086972899354</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.657598786011808</v>
